--- a/Code/Results/Cases/Case_1_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_24/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9657736600206784</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.037345965272987</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9744479520056818</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.02518482006097</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.051355023917379</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.9890285942975782</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.048308420467592</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.9862751312972611</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.036304095545635</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.9904331283446463</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9783338325847882</v>
+      </c>
+      <c r="D3">
+        <v>1.043850981680327</v>
+      </c>
+      <c r="E3">
+        <v>0.9853072186727944</v>
+      </c>
+      <c r="F3">
+        <v>1.033678735671046</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.054764518722386</v>
+      </c>
+      <c r="J3">
+        <v>0.9994330858008547</v>
+      </c>
+      <c r="K3">
+        <v>1.053951917887685</v>
+      </c>
+      <c r="L3">
+        <v>0.9961316136141172</v>
+      </c>
+      <c r="M3">
+        <v>1.043898089264111</v>
+      </c>
+      <c r="N3">
+        <v>1.000852395419269</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9860720924553655</v>
+      </c>
+      <c r="D4">
+        <v>1.047881504970589</v>
+      </c>
+      <c r="E4">
+        <v>0.9920012263716121</v>
+      </c>
+      <c r="F4">
+        <v>1.03893977219222</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.056855090174754</v>
+      </c>
+      <c r="J4">
+        <v>1.005838912691186</v>
+      </c>
+      <c r="K4">
+        <v>1.057434447760716</v>
+      </c>
+      <c r="L4">
+        <v>1.002197157930798</v>
+      </c>
+      <c r="M4">
+        <v>1.048589890070111</v>
+      </c>
+      <c r="N4">
+        <v>1.007267319318543</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9892407078000935</v>
+      </c>
+      <c r="D5">
+        <v>1.049536579699777</v>
+      </c>
+      <c r="E5">
+        <v>0.9947429122094567</v>
+      </c>
+      <c r="F5">
+        <v>1.041099938569302</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.057708392858113</v>
+      </c>
+      <c r="J5">
+        <v>1.008460718467952</v>
+      </c>
+      <c r="K5">
+        <v>1.058861206317454</v>
+      </c>
+      <c r="L5">
+        <v>1.004678997800057</v>
+      </c>
+      <c r="M5">
+        <v>1.050513576962614</v>
+      </c>
+      <c r="N5">
+        <v>1.009892848360238</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9897680000229427</v>
+      </c>
+      <c r="D6">
+        <v>1.049812256420141</v>
+      </c>
+      <c r="E6">
+        <v>0.9951991921179998</v>
+      </c>
+      <c r="F6">
+        <v>1.041459740185149</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.057850221993022</v>
+      </c>
+      <c r="J6">
+        <v>1.008896939559817</v>
+      </c>
+      <c r="K6">
+        <v>1.059098663023749</v>
+      </c>
+      <c r="L6">
+        <v>1.005091890261315</v>
+      </c>
+      <c r="M6">
+        <v>1.050833830338559</v>
+      </c>
+      <c r="N6">
+        <v>1.010329688936088</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9861147534826155</v>
+      </c>
+      <c r="D7">
+        <v>1.047903770653877</v>
+      </c>
+      <c r="E7">
+        <v>0.9920381370063652</v>
+      </c>
+      <c r="F7">
+        <v>1.038968833365559</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.056866589980466</v>
+      </c>
+      <c r="J7">
+        <v>1.005874216716039</v>
+      </c>
+      <c r="K7">
+        <v>1.057453654830957</v>
+      </c>
+      <c r="L7">
+        <v>1.002230579995499</v>
+      </c>
+      <c r="M7">
+        <v>1.048615780655178</v>
+      </c>
+      <c r="N7">
+        <v>1.007302673479161</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9701045791479039</v>
+      </c>
+      <c r="D8">
+        <v>1.039583577165342</v>
+      </c>
+      <c r="E8">
+        <v>0.9781914458808659</v>
+      </c>
+      <c r="F8">
+        <v>1.028107119771862</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.052532581878524</v>
+      </c>
+      <c r="J8">
+        <v>0.9926170132710106</v>
+      </c>
+      <c r="K8">
+        <v>1.050252785374615</v>
+      </c>
+      <c r="L8">
+        <v>0.9896751622440702</v>
+      </c>
+      <c r="M8">
+        <v>1.038919360023348</v>
+      </c>
+      <c r="N8">
+        <v>0.9940266432846184</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9384397222124964</v>
+      </c>
+      <c r="D9">
+        <v>1.023367894182872</v>
+      </c>
+      <c r="E9">
+        <v>0.9508496842278499</v>
+      </c>
+      <c r="F9">
+        <v>1.00690955095461</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.043895204499299</v>
+      </c>
+      <c r="J9">
+        <v>0.9663706828420658</v>
+      </c>
+      <c r="K9">
+        <v>1.036092888413705</v>
+      </c>
+      <c r="L9">
+        <v>0.9647939220970789</v>
+      </c>
+      <c r="M9">
+        <v>1.01989151146014</v>
+      </c>
+      <c r="N9">
+        <v>0.9677430400559678</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9141494850570849</v>
+      </c>
+      <c r="D10">
+        <v>1.011179720601095</v>
+      </c>
+      <c r="E10">
+        <v>0.9299310865486327</v>
+      </c>
+      <c r="F10">
+        <v>0.9909333211406595</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.037258236314248</v>
+      </c>
+      <c r="J10">
+        <v>0.9462381216631118</v>
+      </c>
+      <c r="K10">
+        <v>1.02535001355241</v>
+      </c>
+      <c r="L10">
+        <v>0.945692225098514</v>
+      </c>
+      <c r="M10">
+        <v>1.00546822988617</v>
+      </c>
+      <c r="N10">
+        <v>0.9475818883309031</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9025994926673654</v>
+      </c>
+      <c r="D11">
+        <v>1.005469815242118</v>
+      </c>
+      <c r="E11">
+        <v>0.9200055093733135</v>
+      </c>
+      <c r="F11">
+        <v>0.9834312326437414</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.034110224278806</v>
+      </c>
+      <c r="J11">
+        <v>0.9366715908955091</v>
+      </c>
+      <c r="K11">
+        <v>1.020289310841995</v>
+      </c>
+      <c r="L11">
+        <v>0.9366119994829946</v>
+      </c>
+      <c r="M11">
+        <v>0.9986725252576858</v>
+      </c>
+      <c r="N11">
+        <v>0.9380017719923139</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.898120761298166</v>
+      </c>
+      <c r="D12">
+        <v>1.003271422829507</v>
+      </c>
+      <c r="E12">
+        <v>0.9161608035393982</v>
+      </c>
+      <c r="F12">
+        <v>0.9805393833243219</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.032891894505016</v>
+      </c>
+      <c r="J12">
+        <v>0.93296369162181</v>
+      </c>
+      <c r="K12">
+        <v>1.018336214780681</v>
+      </c>
+      <c r="L12">
+        <v>0.9330921091814791</v>
+      </c>
+      <c r="M12">
+        <v>0.9960491626114146</v>
+      </c>
+      <c r="N12">
+        <v>0.9342886070763442</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.8990906584505646</v>
+      </c>
+      <c r="D13">
+        <v>1.003746737079575</v>
+      </c>
+      <c r="E13">
+        <v>0.9169931947931133</v>
+      </c>
+      <c r="F13">
+        <v>0.9811647998407449</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.033155602294838</v>
+      </c>
+      <c r="J13">
+        <v>0.9337665694687081</v>
+      </c>
+      <c r="K13">
+        <v>1.018758711890683</v>
+      </c>
+      <c r="L13">
+        <v>0.9338542974745456</v>
+      </c>
+      <c r="M13">
+        <v>0.9966166921995383</v>
+      </c>
+      <c r="N13">
+        <v>0.9350926251018763</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.902233359667834</v>
+      </c>
+      <c r="D14">
+        <v>1.005289762853266</v>
+      </c>
+      <c r="E14">
+        <v>0.9196911181057004</v>
+      </c>
+      <c r="F14">
+        <v>0.9831944595650074</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.034010571097816</v>
+      </c>
+      <c r="J14">
+        <v>0.9363684335767996</v>
+      </c>
+      <c r="K14">
+        <v>1.02012944564081</v>
+      </c>
+      <c r="L14">
+        <v>0.9363242229714911</v>
+      </c>
+      <c r="M14">
+        <v>0.9984578139759048</v>
+      </c>
+      <c r="N14">
+        <v>0.9376981841554392</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9041435059170837</v>
+      </c>
+      <c r="D15">
+        <v>1.006229762757779</v>
+      </c>
+      <c r="E15">
+        <v>0.921331495729392</v>
+      </c>
+      <c r="F15">
+        <v>0.9844304371782743</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.034530573250078</v>
+      </c>
+      <c r="J15">
+        <v>0.93795010398895</v>
+      </c>
+      <c r="K15">
+        <v>1.020963863349577</v>
+      </c>
+      <c r="L15">
+        <v>0.9378256278415947</v>
+      </c>
+      <c r="M15">
+        <v>0.9995784710470795</v>
+      </c>
+      <c r="N15">
+        <v>0.9392821007209949</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9148916550772724</v>
+      </c>
+      <c r="D16">
+        <v>1.011548575836692</v>
+      </c>
+      <c r="E16">
+        <v>0.9305693767851966</v>
+      </c>
+      <c r="F16">
+        <v>0.9914175301066627</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.037460769147481</v>
+      </c>
+      <c r="J16">
+        <v>0.9468530269259121</v>
+      </c>
+      <c r="K16">
+        <v>1.025676326787599</v>
+      </c>
+      <c r="L16">
+        <v>0.9462758044198287</v>
+      </c>
+      <c r="M16">
+        <v>1.005906353074223</v>
+      </c>
+      <c r="N16">
+        <v>0.9481976668297071</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9213368647059593</v>
+      </c>
+      <c r="D17">
+        <v>1.014761464566175</v>
+      </c>
+      <c r="E17">
+        <v>0.9361148725610449</v>
+      </c>
+      <c r="F17">
+        <v>0.9956331838597531</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.039220590225367</v>
+      </c>
+      <c r="J17">
+        <v>0.9521938093447537</v>
+      </c>
+      <c r="K17">
+        <v>1.028515529240527</v>
+      </c>
+      <c r="L17">
+        <v>0.9513441192782855</v>
+      </c>
+      <c r="M17">
+        <v>1.009718214866542</v>
+      </c>
+      <c r="N17">
+        <v>0.9535460337721797</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9249993781619625</v>
+      </c>
+      <c r="D18">
+        <v>1.01659478433577</v>
+      </c>
+      <c r="E18">
+        <v>0.9392679817271352</v>
+      </c>
+      <c r="F18">
+        <v>0.9980371403953678</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.040221244527461</v>
+      </c>
+      <c r="J18">
+        <v>0.955229265093518</v>
+      </c>
+      <c r="K18">
+        <v>1.030133088980922</v>
+      </c>
+      <c r="L18">
+        <v>0.9542243902833659</v>
+      </c>
+      <c r="M18">
+        <v>1.011889841587535</v>
+      </c>
+      <c r="N18">
+        <v>0.9565858002162791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9262326215993469</v>
+      </c>
+      <c r="D19">
+        <v>1.017213316030308</v>
+      </c>
+      <c r="E19">
+        <v>0.9403299912806966</v>
+      </c>
+      <c r="F19">
+        <v>0.9988479518211706</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.040558262682816</v>
+      </c>
+      <c r="J19">
+        <v>0.9562514386671604</v>
+      </c>
+      <c r="K19">
+        <v>1.030678409261097</v>
+      </c>
+      <c r="L19">
+        <v>0.9551942496567283</v>
+      </c>
+      <c r="M19">
+        <v>1.012621950409994</v>
+      </c>
+      <c r="N19">
+        <v>0.9576094253936409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9206555826212167</v>
+      </c>
+      <c r="D20">
+        <v>1.014421040684061</v>
+      </c>
+      <c r="E20">
+        <v>0.9355284934241264</v>
+      </c>
+      <c r="F20">
+        <v>0.9951866784669445</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.039034497694496</v>
+      </c>
+      <c r="J20">
+        <v>0.9516292087408359</v>
+      </c>
+      <c r="K20">
+        <v>1.028214966208409</v>
+      </c>
+      <c r="L20">
+        <v>0.9508083564085273</v>
+      </c>
+      <c r="M20">
+        <v>1.00931469566865</v>
+      </c>
+      <c r="N20">
+        <v>0.9529806313706436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9013134427362316</v>
+      </c>
+      <c r="D21">
+        <v>1.004837639810311</v>
+      </c>
+      <c r="E21">
+        <v>0.918901273009927</v>
+      </c>
+      <c r="F21">
+        <v>0.9825998490691227</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.033760232856842</v>
+      </c>
+      <c r="J21">
+        <v>0.9356067745148631</v>
+      </c>
+      <c r="K21">
+        <v>1.019727937591917</v>
+      </c>
+      <c r="L21">
+        <v>0.9356011995703958</v>
+      </c>
+      <c r="M21">
+        <v>0.9979185451460687</v>
+      </c>
+      <c r="N21">
+        <v>0.9369354434502712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.8880353998466309</v>
+      </c>
+      <c r="D22">
+        <v>0.9983543492042488</v>
+      </c>
+      <c r="E22">
+        <v>0.9075122137112183</v>
+      </c>
+      <c r="F22">
+        <v>0.9740637701784856</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.030154494988772</v>
+      </c>
+      <c r="J22">
+        <v>0.9246183437482219</v>
+      </c>
+      <c r="K22">
+        <v>1.013958477402417</v>
+      </c>
+      <c r="L22">
+        <v>0.9251691067424527</v>
+      </c>
+      <c r="M22">
+        <v>0.9901671535720536</v>
+      </c>
+      <c r="N22">
+        <v>0.9259314078515508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.895194638690077</v>
+      </c>
+      <c r="D23">
+        <v>1.001840003216251</v>
+      </c>
+      <c r="E23">
+        <v>0.9136502239562077</v>
+      </c>
+      <c r="F23">
+        <v>0.978655347985795</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.032096762671279</v>
+      </c>
+      <c r="J23">
+        <v>0.9305417767231802</v>
+      </c>
+      <c r="K23">
+        <v>1.017063128591589</v>
+      </c>
+      <c r="L23">
+        <v>0.9307928716620744</v>
+      </c>
+      <c r="M23">
+        <v>0.99433891523544</v>
+      </c>
+      <c r="N23">
+        <v>0.9318632527807609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9209637216217497</v>
+      </c>
+      <c r="D24">
+        <v>1.014574988470191</v>
+      </c>
+      <c r="E24">
+        <v>0.9357937027516696</v>
+      </c>
+      <c r="F24">
+        <v>0.995388603632224</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.039118664126663</v>
+      </c>
+      <c r="J24">
+        <v>0.951884571916969</v>
+      </c>
+      <c r="K24">
+        <v>1.028350895824773</v>
+      </c>
+      <c r="L24">
+        <v>0.9510506775913898</v>
+      </c>
+      <c r="M24">
+        <v>1.009497187421012</v>
+      </c>
+      <c r="N24">
+        <v>0.9532363571917775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9471110420987726</v>
+      </c>
+      <c r="D25">
+        <v>1.027773931207411</v>
+      </c>
+      <c r="E25">
+        <v>0.9583300418553408</v>
+      </c>
+      <c r="F25">
+        <v>1.0126745757059</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.046265077437112</v>
+      </c>
+      <c r="J25">
+        <v>0.9735595385326911</v>
+      </c>
+      <c r="K25">
+        <v>1.039955866382772</v>
+      </c>
+      <c r="L25">
+        <v>0.9716116149446857</v>
+      </c>
+      <c r="M25">
+        <v>1.025079270572805</v>
+      </c>
+      <c r="N25">
+        <v>0.9749421047462473</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_24/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9657736600206784</v>
+        <v>1.022625186580888</v>
       </c>
       <c r="D2">
-        <v>1.037345965272987</v>
+        <v>1.053856394609516</v>
       </c>
       <c r="E2">
-        <v>0.9744479520056818</v>
+        <v>1.037847641708097</v>
       </c>
       <c r="F2">
-        <v>1.02518482006097</v>
+        <v>1.053436844793273</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051355023917379</v>
+        <v>1.058284482726185</v>
       </c>
       <c r="J2">
-        <v>0.9890285942975782</v>
+        <v>1.044149617212242</v>
       </c>
       <c r="K2">
-        <v>1.048308420467592</v>
+        <v>1.064613149547616</v>
       </c>
       <c r="L2">
-        <v>0.9862751312972611</v>
+        <v>1.048803726256635</v>
       </c>
       <c r="M2">
-        <v>1.036304095545635</v>
+        <v>1.064198727532141</v>
       </c>
       <c r="N2">
-        <v>0.9904331283446463</v>
+        <v>1.018078425893941</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9783338325847882</v>
+        <v>1.027493023629131</v>
       </c>
       <c r="D3">
-        <v>1.043850981680327</v>
+        <v>1.057261052072685</v>
       </c>
       <c r="E3">
-        <v>0.9853072186727944</v>
+        <v>1.041813254260606</v>
       </c>
       <c r="F3">
-        <v>1.033678735671046</v>
+        <v>1.057442652059119</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054764518722386</v>
+        <v>1.059795402548138</v>
       </c>
       <c r="J3">
-        <v>0.9994330858008547</v>
+        <v>1.047261262398262</v>
       </c>
       <c r="K3">
-        <v>1.053951917887685</v>
+        <v>1.067210165244015</v>
       </c>
       <c r="L3">
-        <v>0.9961316136141172</v>
+        <v>1.051937683260382</v>
       </c>
       <c r="M3">
-        <v>1.043898089264111</v>
+        <v>1.067389741754161</v>
       </c>
       <c r="N3">
-        <v>1.000852395419269</v>
+        <v>1.019153253996732</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9860720924553655</v>
+        <v>1.030578436754474</v>
       </c>
       <c r="D4">
-        <v>1.047881504970589</v>
+        <v>1.059422731859423</v>
       </c>
       <c r="E4">
-        <v>0.9920012263716121</v>
+        <v>1.044332537905607</v>
       </c>
       <c r="F4">
-        <v>1.03893977219222</v>
+        <v>1.059987495476906</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056855090174754</v>
+        <v>1.060745061102079</v>
       </c>
       <c r="J4">
-        <v>1.005838912691186</v>
+        <v>1.049231017596629</v>
       </c>
       <c r="K4">
-        <v>1.057434447760716</v>
+        <v>1.068853213817758</v>
       </c>
       <c r="L4">
-        <v>1.002197157930798</v>
+        <v>1.053923805102806</v>
       </c>
       <c r="M4">
-        <v>1.048589890070111</v>
+        <v>1.069412068511829</v>
       </c>
       <c r="N4">
-        <v>1.007267319318543</v>
+        <v>1.019833139718473</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9892407078000935</v>
+        <v>1.031860698229256</v>
       </c>
       <c r="D5">
-        <v>1.049536579699777</v>
+        <v>1.060321909287365</v>
       </c>
       <c r="E5">
-        <v>0.9947429122094567</v>
+        <v>1.045380846812663</v>
       </c>
       <c r="F5">
-        <v>1.041099938569302</v>
+        <v>1.061046435046151</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057708392858113</v>
+        <v>1.061137762613378</v>
       </c>
       <c r="J5">
-        <v>1.008460718467952</v>
+        <v>1.050048983451464</v>
       </c>
       <c r="K5">
-        <v>1.058861206317454</v>
+        <v>1.06953525824823</v>
       </c>
       <c r="L5">
-        <v>1.004678997800057</v>
+        <v>1.054749099405014</v>
       </c>
       <c r="M5">
-        <v>1.050513576962614</v>
+        <v>1.070252407497756</v>
       </c>
       <c r="N5">
-        <v>1.009892848360238</v>
+        <v>1.020115341891007</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9897680000229427</v>
+        <v>1.032075141071105</v>
       </c>
       <c r="D6">
-        <v>1.049812256420141</v>
+        <v>1.060472331326735</v>
       </c>
       <c r="E6">
-        <v>0.9951991921179998</v>
+        <v>1.045556240280916</v>
       </c>
       <c r="F6">
-        <v>1.041459740185149</v>
+        <v>1.061223606526462</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057850221993022</v>
+        <v>1.061203320499972</v>
       </c>
       <c r="J6">
-        <v>1.008896939559817</v>
+        <v>1.050185739677707</v>
       </c>
       <c r="K6">
-        <v>1.059098663023749</v>
+        <v>1.069649274032721</v>
       </c>
       <c r="L6">
-        <v>1.005091890261315</v>
+        <v>1.054887111985742</v>
       </c>
       <c r="M6">
-        <v>1.050833830338559</v>
+        <v>1.070392935705109</v>
       </c>
       <c r="N6">
-        <v>1.010329688936088</v>
+        <v>1.020162515669661</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9861147534826155</v>
+        <v>1.0305956279943</v>
       </c>
       <c r="D7">
-        <v>1.047903770653877</v>
+        <v>1.059434784005809</v>
       </c>
       <c r="E7">
-        <v>0.9920381370063652</v>
+        <v>1.044346587385998</v>
       </c>
       <c r="F7">
-        <v>1.038968833365559</v>
+        <v>1.060001687464309</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056866589980466</v>
+        <v>1.060750333857246</v>
       </c>
       <c r="J7">
-        <v>1.005874216716039</v>
+        <v>1.049241986620417</v>
       </c>
       <c r="K7">
-        <v>1.057453654830957</v>
+        <v>1.068862361152724</v>
       </c>
       <c r="L7">
-        <v>1.002230579995499</v>
+        <v>1.053934870307508</v>
       </c>
       <c r="M7">
-        <v>1.048615780655178</v>
+        <v>1.069423335441192</v>
       </c>
       <c r="N7">
-        <v>1.007302673479161</v>
+        <v>1.019836924603358</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9701045791479039</v>
+        <v>1.024283983854644</v>
       </c>
       <c r="D8">
-        <v>1.039583577165342</v>
+        <v>1.05501576962385</v>
       </c>
       <c r="E8">
-        <v>0.9781914458808659</v>
+        <v>1.039197756367907</v>
       </c>
       <c r="F8">
-        <v>1.028107119771862</v>
+        <v>1.054800631872594</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052532581878524</v>
+        <v>1.058801009531139</v>
       </c>
       <c r="J8">
-        <v>0.9926170132710106</v>
+        <v>1.04521046802755</v>
       </c>
       <c r="K8">
-        <v>1.050252785374615</v>
+        <v>1.065498725990083</v>
       </c>
       <c r="L8">
-        <v>0.9896751622440702</v>
+        <v>1.049871709235616</v>
       </c>
       <c r="M8">
-        <v>1.038919360023348</v>
+        <v>1.065286138326051</v>
       </c>
       <c r="N8">
-        <v>0.9940266432846184</v>
+        <v>1.018444968968207</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9384397222124964</v>
+        <v>1.012641533021612</v>
       </c>
       <c r="D9">
-        <v>1.023367894182872</v>
+        <v>1.046897445949348</v>
       </c>
       <c r="E9">
-        <v>0.9508496842278499</v>
+        <v>1.029748401889064</v>
       </c>
       <c r="F9">
-        <v>1.00690955095461</v>
+        <v>1.045256168848159</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043895204499299</v>
+        <v>1.055143442720851</v>
       </c>
       <c r="J9">
-        <v>0.9663706828420658</v>
+        <v>1.037755650119262</v>
       </c>
       <c r="K9">
-        <v>1.036092888413705</v>
+        <v>1.059272857590358</v>
       </c>
       <c r="L9">
-        <v>0.9647939220970789</v>
+        <v>1.042376589969484</v>
       </c>
       <c r="M9">
-        <v>1.01989151146014</v>
+        <v>1.057655317828635</v>
       </c>
       <c r="N9">
-        <v>0.9677430400559678</v>
+        <v>1.015867309871987</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9141494850570849</v>
+        <v>1.004489185420381</v>
       </c>
       <c r="D10">
-        <v>1.011179720601095</v>
+        <v>1.041240576119199</v>
       </c>
       <c r="E10">
-        <v>0.9299310865486327</v>
+        <v>1.023168140694826</v>
       </c>
       <c r="F10">
-        <v>0.9909333211406595</v>
+        <v>1.038610983094191</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037258236314248</v>
+        <v>1.052543314928327</v>
       </c>
       <c r="J10">
-        <v>0.9462381216631118</v>
+        <v>1.032525817719019</v>
       </c>
       <c r="K10">
-        <v>1.02535001355241</v>
+        <v>1.054903109966029</v>
       </c>
       <c r="L10">
-        <v>0.945692225098514</v>
+        <v>1.037131318375535</v>
       </c>
       <c r="M10">
-        <v>1.00546822988617</v>
+        <v>1.052316425335772</v>
       </c>
       <c r="N10">
-        <v>0.9475818883309031</v>
+        <v>1.014056900823448</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9025994926673654</v>
+        <v>1.000856538387347</v>
       </c>
       <c r="D11">
-        <v>1.005469815242118</v>
+        <v>1.038727793397783</v>
       </c>
       <c r="E11">
-        <v>0.9200055093733135</v>
+        <v>1.020245558278591</v>
       </c>
       <c r="F11">
-        <v>0.9834312326437414</v>
+        <v>1.035660069564417</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034110224278806</v>
+        <v>1.051376134096185</v>
       </c>
       <c r="J11">
-        <v>0.9366715908955091</v>
+        <v>1.030193727723001</v>
       </c>
       <c r="K11">
-        <v>1.020289310841995</v>
+        <v>1.052954538373184</v>
       </c>
       <c r="L11">
-        <v>0.9366119994829946</v>
+        <v>1.034795512668449</v>
       </c>
       <c r="M11">
-        <v>0.9986725252576858</v>
+        <v>1.04993942914968</v>
       </c>
       <c r="N11">
-        <v>0.9380017719923139</v>
+        <v>1.013249210110462</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.898120761298166</v>
+        <v>0.9994908756967847</v>
       </c>
       <c r="D12">
-        <v>1.003271422829507</v>
+        <v>1.037784436741977</v>
       </c>
       <c r="E12">
-        <v>0.9161608035393982</v>
+        <v>1.019148355454055</v>
       </c>
       <c r="F12">
-        <v>0.9805393833243219</v>
+        <v>1.034552324213101</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032891894505016</v>
+        <v>1.050936114606835</v>
       </c>
       <c r="J12">
-        <v>0.93296369162181</v>
+        <v>1.029316798217951</v>
       </c>
       <c r="K12">
-        <v>1.018336214780681</v>
+        <v>1.052221863641836</v>
       </c>
       <c r="L12">
-        <v>0.9330921091814791</v>
+        <v>1.033917673579542</v>
       </c>
       <c r="M12">
-        <v>0.9960491626114146</v>
+        <v>1.049046201510007</v>
       </c>
       <c r="N12">
-        <v>0.9342886070763442</v>
+        <v>1.012945446383691</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8990906584505646</v>
+        <v>0.9997845696946029</v>
       </c>
       <c r="D13">
-        <v>1.003746737079575</v>
+        <v>1.037987250484323</v>
       </c>
       <c r="E13">
-        <v>0.9169931947931133</v>
+        <v>1.019384245625798</v>
       </c>
       <c r="F13">
-        <v>0.9811647998407449</v>
+        <v>1.034790476419448</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033155602294838</v>
+        <v>1.051030797914386</v>
       </c>
       <c r="J13">
-        <v>0.9337665694687081</v>
+        <v>1.029505395315955</v>
       </c>
       <c r="K13">
-        <v>1.018758711890683</v>
+        <v>1.052379433960399</v>
       </c>
       <c r="L13">
-        <v>0.9338542974745456</v>
+        <v>1.03410644407367</v>
       </c>
       <c r="M13">
-        <v>0.9966166921995383</v>
+        <v>1.049238276745517</v>
       </c>
       <c r="N13">
-        <v>0.9350926251018763</v>
+        <v>1.01301077752903</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.902233359667834</v>
+        <v>1.000743991076329</v>
       </c>
       <c r="D14">
-        <v>1.005289762853266</v>
+        <v>1.038650022100338</v>
       </c>
       <c r="E14">
-        <v>0.9196911181057004</v>
+        <v>1.020155104020898</v>
       </c>
       <c r="F14">
-        <v>0.9831944595650074</v>
+        <v>1.035568744162818</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034010571097816</v>
+        <v>1.051339895699908</v>
       </c>
       <c r="J14">
-        <v>0.9363684335767996</v>
+        <v>1.030121461742069</v>
       </c>
       <c r="K14">
-        <v>1.02012944564081</v>
+        <v>1.052894159038441</v>
       </c>
       <c r="L14">
-        <v>0.9363242229714911</v>
+        <v>1.034723161751653</v>
       </c>
       <c r="M14">
-        <v>0.9984578139759048</v>
+        <v>1.04986580795902</v>
       </c>
       <c r="N14">
-        <v>0.9376981841554392</v>
+        <v>1.013224178521315</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9041435059170837</v>
+        <v>1.001332929001917</v>
       </c>
       <c r="D15">
-        <v>1.006229762757779</v>
+        <v>1.039057037791051</v>
       </c>
       <c r="E15">
-        <v>0.921331495729392</v>
+        <v>1.020628495678725</v>
       </c>
       <c r="F15">
-        <v>0.9844304371782743</v>
+        <v>1.03604669887135</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034530573250078</v>
+        <v>1.051529474424646</v>
       </c>
       <c r="J15">
-        <v>0.93795010398895</v>
+        <v>1.030499607576779</v>
       </c>
       <c r="K15">
-        <v>1.020963863349577</v>
+        <v>1.053210107627641</v>
       </c>
       <c r="L15">
-        <v>0.9378256278415947</v>
+        <v>1.035101771972068</v>
       </c>
       <c r="M15">
-        <v>0.9995784710470795</v>
+        <v>1.050251069318771</v>
       </c>
       <c r="N15">
-        <v>0.9392821007209949</v>
+        <v>1.013355159209252</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9148916550772724</v>
+        <v>1.004728033251295</v>
       </c>
       <c r="D16">
-        <v>1.011548575836692</v>
+        <v>1.041405966570356</v>
       </c>
       <c r="E16">
-        <v>0.9305693767851966</v>
+        <v>1.02336050728302</v>
       </c>
       <c r="F16">
-        <v>0.9914175301066627</v>
+        <v>1.038805226460972</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037460769147481</v>
+        <v>1.052619883906651</v>
       </c>
       <c r="J16">
-        <v>0.9468530269259121</v>
+        <v>1.032679122639401</v>
       </c>
       <c r="K16">
-        <v>1.025676326787599</v>
+        <v>1.055031206836419</v>
       </c>
       <c r="L16">
-        <v>0.9462758044198287</v>
+        <v>1.037284934497746</v>
       </c>
       <c r="M16">
-        <v>1.005906353074223</v>
+        <v>1.052472762172903</v>
       </c>
       <c r="N16">
-        <v>0.9481976668297071</v>
+        <v>1.01410998868346</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9213368647059593</v>
+        <v>1.006829589784656</v>
       </c>
       <c r="D17">
-        <v>1.014761464566175</v>
+        <v>1.04286210330276</v>
       </c>
       <c r="E17">
-        <v>0.9361148725610449</v>
+        <v>1.025054184354508</v>
       </c>
       <c r="F17">
-        <v>0.9956331838597531</v>
+        <v>1.040515487064669</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039220590225367</v>
+        <v>1.053292624562809</v>
       </c>
       <c r="J17">
-        <v>0.9521938093447537</v>
+        <v>1.034027823404997</v>
       </c>
       <c r="K17">
-        <v>1.028515529240527</v>
+        <v>1.056158143419727</v>
       </c>
       <c r="L17">
-        <v>0.9513441192782855</v>
+        <v>1.038636734834578</v>
       </c>
       <c r="M17">
-        <v>1.009718214866542</v>
+        <v>1.053848563283771</v>
       </c>
       <c r="N17">
-        <v>0.9535460337721797</v>
+        <v>1.014576985861922</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9249993781619625</v>
+        <v>1.00804555561681</v>
       </c>
       <c r="D18">
-        <v>1.01659478433577</v>
+        <v>1.043705368083602</v>
       </c>
       <c r="E18">
-        <v>0.9392679817271352</v>
+        <v>1.02603505028721</v>
       </c>
       <c r="F18">
-        <v>0.9980371403953678</v>
+        <v>1.041506003819108</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040221244527461</v>
+        <v>1.053681056405358</v>
       </c>
       <c r="J18">
-        <v>0.955229265093518</v>
+        <v>1.034808019819159</v>
       </c>
       <c r="K18">
-        <v>1.030133088980922</v>
+        <v>1.056810049697055</v>
       </c>
       <c r="L18">
-        <v>0.9542243902833659</v>
+        <v>1.039419023929729</v>
       </c>
       <c r="M18">
-        <v>1.011889841587535</v>
+        <v>1.054644788023168</v>
       </c>
       <c r="N18">
-        <v>0.9565858002162791</v>
+        <v>1.014847096622855</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9262326215993469</v>
+        <v>1.008458526850345</v>
       </c>
       <c r="D19">
-        <v>1.017213316030308</v>
+        <v>1.043991883294423</v>
       </c>
       <c r="E19">
-        <v>0.9403299912806966</v>
+        <v>1.026368326258926</v>
       </c>
       <c r="F19">
-        <v>0.9988479518211706</v>
+        <v>1.041842566335738</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040558262682816</v>
+        <v>1.053812836756688</v>
       </c>
       <c r="J19">
-        <v>0.9562514386671604</v>
+        <v>1.035072963651051</v>
       </c>
       <c r="K19">
-        <v>1.030678409261097</v>
+        <v>1.057031426061672</v>
       </c>
       <c r="L19">
-        <v>0.9551942496567283</v>
+        <v>1.039684728904108</v>
       </c>
       <c r="M19">
-        <v>1.012621950409994</v>
+        <v>1.054915233637246</v>
       </c>
       <c r="N19">
-        <v>0.9576094253936409</v>
+        <v>1.014938815805914</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9206555826212167</v>
+        <v>1.006605136509996</v>
       </c>
       <c r="D20">
-        <v>1.014421040684061</v>
+        <v>1.042706505385407</v>
       </c>
       <c r="E20">
-        <v>0.9355284934241264</v>
+        <v>1.024873200003278</v>
       </c>
       <c r="F20">
-        <v>0.9951866784669445</v>
+        <v>1.040332725646166</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039034497694496</v>
+        <v>1.053220858014227</v>
       </c>
       <c r="J20">
-        <v>0.9516292087408359</v>
+        <v>1.033883794402056</v>
       </c>
       <c r="K20">
-        <v>1.028214966208409</v>
+        <v>1.056037796934221</v>
       </c>
       <c r="L20">
-        <v>0.9508083564085273</v>
+        <v>1.038492343653948</v>
       </c>
       <c r="M20">
-        <v>1.00931469566865</v>
+        <v>1.053701603561605</v>
       </c>
       <c r="N20">
-        <v>0.9529806313706436</v>
+        <v>1.014527118657036</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9013134427362316</v>
+        <v>1.000461924053331</v>
       </c>
       <c r="D21">
-        <v>1.004837639810311</v>
+        <v>1.038455132407396</v>
       </c>
       <c r="E21">
-        <v>0.918901273009927</v>
+        <v>1.019928431520132</v>
       </c>
       <c r="F21">
-        <v>0.9825998490691227</v>
+        <v>1.035339890202771</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033760232856842</v>
+        <v>1.0512490551601</v>
       </c>
       <c r="J21">
-        <v>0.9356067745148631</v>
+        <v>1.029940345099672</v>
       </c>
       <c r="K21">
-        <v>1.019727937591917</v>
+        <v>1.052742834124627</v>
       </c>
       <c r="L21">
-        <v>0.9356011995703958</v>
+        <v>1.034541840133405</v>
       </c>
       <c r="M21">
-        <v>0.9979185451460687</v>
+        <v>1.049681304388057</v>
       </c>
       <c r="N21">
-        <v>0.9369354434502712</v>
+        <v>1.013161442317415</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8880353998466309</v>
+        <v>0.9965044229282677</v>
       </c>
       <c r="D22">
-        <v>0.9983543492042488</v>
+        <v>1.035724019787243</v>
       </c>
       <c r="E22">
-        <v>0.9075122137112183</v>
+        <v>1.016751860029935</v>
       </c>
       <c r="F22">
-        <v>0.9740637701784856</v>
+        <v>1.032132994612475</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030154494988772</v>
+        <v>1.049971684726568</v>
       </c>
       <c r="J22">
-        <v>0.9246183437482219</v>
+        <v>1.027398810711345</v>
       </c>
       <c r="K22">
-        <v>1.013958477402417</v>
+        <v>1.050619510397429</v>
       </c>
       <c r="L22">
-        <v>0.9251691067424527</v>
+        <v>1.031998606996309</v>
       </c>
       <c r="M22">
-        <v>0.9901671535720536</v>
+        <v>1.047093681005802</v>
       </c>
       <c r="N22">
-        <v>0.9259314078515508</v>
+        <v>1.01228098384956</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.895194638690077</v>
+        <v>0.9986117005079717</v>
       </c>
       <c r="D23">
-        <v>1.001840003216251</v>
+        <v>1.037177512515356</v>
       </c>
       <c r="E23">
-        <v>0.9136502239562077</v>
+        <v>1.018442445363892</v>
       </c>
       <c r="F23">
-        <v>0.978655347985795</v>
+        <v>1.033839660047974</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032096762671279</v>
+        <v>1.050652504329345</v>
       </c>
       <c r="J23">
-        <v>0.9305417767231802</v>
+        <v>1.028752206492366</v>
       </c>
       <c r="K23">
-        <v>1.017063128591589</v>
+        <v>1.051750164408492</v>
       </c>
       <c r="L23">
-        <v>0.9307928716620744</v>
+        <v>1.033352635161146</v>
       </c>
       <c r="M23">
-        <v>0.99433891523544</v>
+        <v>1.048471285892652</v>
       </c>
       <c r="N23">
-        <v>0.9318632527807609</v>
+        <v>1.012749861862231</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9209637216217497</v>
+        <v>1.006706587614057</v>
       </c>
       <c r="D24">
-        <v>1.014574988470191</v>
+        <v>1.042776832125648</v>
       </c>
       <c r="E24">
-        <v>0.9357937027516696</v>
+        <v>1.024955000712871</v>
       </c>
       <c r="F24">
-        <v>0.995388603632224</v>
+        <v>1.040415329405238</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039118664126663</v>
+        <v>1.05325329846599</v>
       </c>
       <c r="J24">
-        <v>0.951884571916969</v>
+        <v>1.033948894888123</v>
       </c>
       <c r="K24">
-        <v>1.028350895824773</v>
+        <v>1.056092193040514</v>
       </c>
       <c r="L24">
-        <v>0.9510506775913898</v>
+        <v>1.038557606914419</v>
       </c>
       <c r="M24">
-        <v>1.009497187421012</v>
+        <v>1.053768027632723</v>
       </c>
       <c r="N24">
-        <v>0.9532363571917775</v>
+        <v>1.01454965853564</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9471110420987726</v>
+        <v>1.01571709535245</v>
       </c>
       <c r="D25">
-        <v>1.027773931207411</v>
+        <v>1.04903766670602</v>
       </c>
       <c r="E25">
-        <v>0.9583300418553408</v>
+        <v>1.032238628990745</v>
       </c>
       <c r="F25">
-        <v>1.0126745757059</v>
+        <v>1.047771295571004</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046265077437112</v>
+        <v>1.056116586527266</v>
       </c>
       <c r="J25">
-        <v>0.9735595385326911</v>
+        <v>1.039726851713497</v>
       </c>
       <c r="K25">
-        <v>1.039955866382772</v>
+        <v>1.060919607535042</v>
       </c>
       <c r="L25">
-        <v>0.9716116149446857</v>
+        <v>1.044356277455969</v>
       </c>
       <c r="M25">
-        <v>1.025079270572805</v>
+        <v>1.059670672819118</v>
       </c>
       <c r="N25">
-        <v>0.9749421047462473</v>
+        <v>1.016549285803458</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_24/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.022625186580888</v>
+        <v>1.051949480937346</v>
       </c>
       <c r="D2">
-        <v>1.053856394609516</v>
+        <v>1.065145065419707</v>
       </c>
       <c r="E2">
-        <v>1.037847641708097</v>
+        <v>1.059725950246125</v>
       </c>
       <c r="F2">
-        <v>1.053436844793273</v>
+        <v>1.072610349036436</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058284482726185</v>
+        <v>1.050301235574709</v>
       </c>
       <c r="J2">
-        <v>1.044149617212242</v>
+        <v>1.056974657534808</v>
       </c>
       <c r="K2">
-        <v>1.064613149547616</v>
+        <v>1.06785909540213</v>
       </c>
       <c r="L2">
-        <v>1.048803726256635</v>
+        <v>1.062454669563306</v>
       </c>
       <c r="M2">
-        <v>1.064198727532141</v>
+        <v>1.075304406058649</v>
       </c>
       <c r="N2">
-        <v>1.018078425893941</v>
+        <v>1.022744879528077</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.027493023629131</v>
+        <v>1.052983580757472</v>
       </c>
       <c r="D3">
-        <v>1.057261052072685</v>
+        <v>1.065880925245218</v>
       </c>
       <c r="E3">
-        <v>1.041813254260606</v>
+        <v>1.060613607450938</v>
       </c>
       <c r="F3">
-        <v>1.057442652059119</v>
+        <v>1.073503613925229</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059795402548138</v>
+        <v>1.050569804805662</v>
       </c>
       <c r="J3">
-        <v>1.047261262398262</v>
+        <v>1.057658633487758</v>
       </c>
       <c r="K3">
-        <v>1.067210165244015</v>
+        <v>1.068410496177307</v>
       </c>
       <c r="L3">
-        <v>1.051937683260382</v>
+        <v>1.063156427115526</v>
       </c>
       <c r="M3">
-        <v>1.067389741754161</v>
+        <v>1.076014259505734</v>
       </c>
       <c r="N3">
-        <v>1.019153253996732</v>
+        <v>1.02297761036921</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.030578436754474</v>
+        <v>1.053653200178864</v>
       </c>
       <c r="D4">
-        <v>1.059422731859423</v>
+        <v>1.066357405803037</v>
       </c>
       <c r="E4">
-        <v>1.044332537905607</v>
+        <v>1.061188719102321</v>
       </c>
       <c r="F4">
-        <v>1.059987495476906</v>
+        <v>1.074082320460776</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060745061102079</v>
+        <v>1.050742653170084</v>
       </c>
       <c r="J4">
-        <v>1.049231017596629</v>
+        <v>1.058101089575183</v>
       </c>
       <c r="K4">
-        <v>1.068853213817758</v>
+        <v>1.068766948493543</v>
       </c>
       <c r="L4">
-        <v>1.053923805102806</v>
+        <v>1.06361060975824</v>
       </c>
       <c r="M4">
-        <v>1.069412068511829</v>
+        <v>1.076473646076237</v>
       </c>
       <c r="N4">
-        <v>1.019833139718473</v>
+        <v>1.023128038754151</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.031860698229256</v>
+        <v>1.053934824405106</v>
       </c>
       <c r="D5">
-        <v>1.060321909287365</v>
+        <v>1.06655779593171</v>
       </c>
       <c r="E5">
-        <v>1.045380846812663</v>
+        <v>1.061430671650067</v>
       </c>
       <c r="F5">
-        <v>1.061046435046151</v>
+        <v>1.074325776090624</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061137762613378</v>
+        <v>1.050815094566388</v>
       </c>
       <c r="J5">
-        <v>1.050048983451464</v>
+        <v>1.058287068168056</v>
       </c>
       <c r="K5">
-        <v>1.06953525824823</v>
+        <v>1.068916718501652</v>
       </c>
       <c r="L5">
-        <v>1.054749099405014</v>
+        <v>1.063801570889876</v>
       </c>
       <c r="M5">
-        <v>1.070252407497756</v>
+        <v>1.076666786495708</v>
       </c>
       <c r="N5">
-        <v>1.020115341891007</v>
+        <v>1.023191239232165</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.032075141071105</v>
+        <v>1.053982117151856</v>
       </c>
       <c r="D6">
-        <v>1.060472331326735</v>
+        <v>1.066591446834442</v>
       </c>
       <c r="E6">
-        <v>1.045556240280916</v>
+        <v>1.061471306813681</v>
       </c>
       <c r="F6">
-        <v>1.061223606526462</v>
+        <v>1.074366663142739</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061203320499972</v>
+        <v>1.050827244642875</v>
       </c>
       <c r="J6">
-        <v>1.050185739677707</v>
+        <v>1.058318293015289</v>
       </c>
       <c r="K6">
-        <v>1.069649274032721</v>
+        <v>1.068941860677104</v>
       </c>
       <c r="L6">
-        <v>1.054887111985742</v>
+        <v>1.063833635413423</v>
       </c>
       <c r="M6">
-        <v>1.070392935705109</v>
+        <v>1.076699216431883</v>
       </c>
       <c r="N6">
-        <v>1.020162515669661</v>
+        <v>1.023201848537442</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.0305956279943</v>
+        <v>1.053656962799538</v>
       </c>
       <c r="D7">
-        <v>1.059434784005809</v>
+        <v>1.066360083122073</v>
       </c>
       <c r="E7">
-        <v>1.044346587385998</v>
+        <v>1.061191951395442</v>
       </c>
       <c r="F7">
-        <v>1.060001687464309</v>
+        <v>1.07408557287059</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060750333857246</v>
+        <v>1.050743622016552</v>
       </c>
       <c r="J7">
-        <v>1.049241986620417</v>
+        <v>1.058103574748804</v>
       </c>
       <c r="K7">
-        <v>1.068862361152724</v>
+        <v>1.068768950053251</v>
       </c>
       <c r="L7">
-        <v>1.053934870307508</v>
+        <v>1.063613161301904</v>
       </c>
       <c r="M7">
-        <v>1.069423335441192</v>
+        <v>1.076476226773013</v>
       </c>
       <c r="N7">
-        <v>1.019836924603358</v>
+        <v>1.023128883398123</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.024283983854644</v>
+        <v>1.052298858512081</v>
       </c>
       <c r="D8">
-        <v>1.05501576962385</v>
+        <v>1.065393683566723</v>
       </c>
       <c r="E8">
-        <v>1.039197756367907</v>
+        <v>1.060025784673981</v>
       </c>
       <c r="F8">
-        <v>1.054800631872594</v>
+        <v>1.072912085488272</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058801009531139</v>
+        <v>1.050392192880889</v>
       </c>
       <c r="J8">
-        <v>1.04521046802755</v>
+        <v>1.057205835257859</v>
       </c>
       <c r="K8">
-        <v>1.065498725990083</v>
+        <v>1.068045513884537</v>
       </c>
       <c r="L8">
-        <v>1.049871709235616</v>
+        <v>1.062691810889071</v>
       </c>
       <c r="M8">
-        <v>1.065286138326051</v>
+        <v>1.075544290518204</v>
       </c>
       <c r="N8">
-        <v>1.018444968968207</v>
+        <v>1.02282356576148</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.012641533021612</v>
+        <v>1.049909463796273</v>
       </c>
       <c r="D9">
-        <v>1.046897445949348</v>
+        <v>1.06369334968572</v>
       </c>
       <c r="E9">
-        <v>1.029748401889064</v>
+        <v>1.057976550803803</v>
       </c>
       <c r="F9">
-        <v>1.045256168848159</v>
+        <v>1.070849700429148</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055143442720851</v>
+        <v>1.04976579868358</v>
       </c>
       <c r="J9">
-        <v>1.037755650119262</v>
+        <v>1.055623000147556</v>
       </c>
       <c r="K9">
-        <v>1.059272857590358</v>
+        <v>1.06676815802904</v>
       </c>
       <c r="L9">
-        <v>1.042376589969484</v>
+        <v>1.06106906632969</v>
       </c>
       <c r="M9">
-        <v>1.057655317828635</v>
+        <v>1.073902633389256</v>
       </c>
       <c r="N9">
-        <v>1.015867309871987</v>
+        <v>1.022284316015444</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.004489185420381</v>
+        <v>1.048319090682833</v>
       </c>
       <c r="D10">
-        <v>1.041240576119199</v>
+        <v>1.062561609525225</v>
       </c>
       <c r="E10">
-        <v>1.023168140694826</v>
+        <v>1.056614291551687</v>
       </c>
       <c r="F10">
-        <v>1.038610983094191</v>
+        <v>1.06947851375416</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052543314928327</v>
+        <v>1.049343436197162</v>
       </c>
       <c r="J10">
-        <v>1.032525817719019</v>
+        <v>1.054567210849264</v>
       </c>
       <c r="K10">
-        <v>1.054903109966029</v>
+        <v>1.065914915764914</v>
       </c>
       <c r="L10">
-        <v>1.037131318375535</v>
+        <v>1.059987819160865</v>
       </c>
       <c r="M10">
-        <v>1.052316425335772</v>
+        <v>1.072808612555321</v>
       </c>
       <c r="N10">
-        <v>1.014056900823448</v>
+        <v>1.02192400192362</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.000856538387347</v>
+        <v>1.047631053589015</v>
       </c>
       <c r="D11">
-        <v>1.038727793397783</v>
+        <v>1.062072000313595</v>
       </c>
       <c r="E11">
-        <v>1.020245558278591</v>
+        <v>1.056025355578956</v>
       </c>
       <c r="F11">
-        <v>1.035660069564417</v>
+        <v>1.068885676094689</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051376134096185</v>
+        <v>1.049159423842564</v>
       </c>
       <c r="J11">
-        <v>1.030193727723001</v>
+        <v>1.054109916582076</v>
       </c>
       <c r="K11">
-        <v>1.052954538373184</v>
+        <v>1.065545067414227</v>
       </c>
       <c r="L11">
-        <v>1.034795512668449</v>
+        <v>1.0595197755069</v>
       </c>
       <c r="M11">
-        <v>1.04993942914968</v>
+        <v>1.072335000454911</v>
       </c>
       <c r="N11">
-        <v>1.013249210110462</v>
+        <v>1.021767792940113</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9994908756967847</v>
+        <v>1.047375577236339</v>
       </c>
       <c r="D12">
-        <v>1.037784436741977</v>
+        <v>1.061890205292405</v>
       </c>
       <c r="E12">
-        <v>1.019148355454055</v>
+        <v>1.055806739465434</v>
       </c>
       <c r="F12">
-        <v>1.034552324213101</v>
+        <v>1.068665605463892</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050936114606835</v>
+        <v>1.049090904631578</v>
       </c>
       <c r="J12">
-        <v>1.029316798217951</v>
+        <v>1.053940038141905</v>
       </c>
       <c r="K12">
-        <v>1.052221863641836</v>
+        <v>1.065407631743415</v>
       </c>
       <c r="L12">
-        <v>1.033917673579542</v>
+        <v>1.059345945587597</v>
       </c>
       <c r="M12">
-        <v>1.049046201510007</v>
+        <v>1.07215909670951</v>
       </c>
       <c r="N12">
-        <v>1.012945446383691</v>
+        <v>1.021709741647211</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9997845696946029</v>
+        <v>1.04743037364555</v>
       </c>
       <c r="D13">
-        <v>1.037987250484323</v>
+        <v>1.061929197860298</v>
       </c>
       <c r="E13">
-        <v>1.019384245625798</v>
+        <v>1.055853626970228</v>
       </c>
       <c r="F13">
-        <v>1.034790476419448</v>
+        <v>1.068712805202916</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051030797914386</v>
+        <v>1.049105609867862</v>
       </c>
       <c r="J13">
-        <v>1.029505395315955</v>
+        <v>1.053976478493215</v>
       </c>
       <c r="K13">
-        <v>1.052379433960399</v>
+        <v>1.065437114750208</v>
       </c>
       <c r="L13">
-        <v>1.03410644407367</v>
+        <v>1.059383231672294</v>
       </c>
       <c r="M13">
-        <v>1.049238276745517</v>
+        <v>1.072196827881384</v>
       </c>
       <c r="N13">
-        <v>1.01301077752903</v>
+        <v>1.021722195123135</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.000743991076329</v>
+        <v>1.047609933970186</v>
       </c>
       <c r="D14">
-        <v>1.038650022100338</v>
+        <v>1.062056971693243</v>
       </c>
       <c r="E14">
-        <v>1.020155104020898</v>
+        <v>1.056007281822021</v>
       </c>
       <c r="F14">
-        <v>1.035568744162818</v>
+        <v>1.068867482213225</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051339895699908</v>
+        <v>1.049153763464773</v>
       </c>
       <c r="J14">
-        <v>1.030121461742069</v>
+        <v>1.054095874760958</v>
       </c>
       <c r="K14">
-        <v>1.052894159038441</v>
+        <v>1.065533708107164</v>
       </c>
       <c r="L14">
-        <v>1.034723161751653</v>
+        <v>1.059505406211468</v>
       </c>
       <c r="M14">
-        <v>1.04986580795902</v>
+        <v>1.072320459846788</v>
       </c>
       <c r="N14">
-        <v>1.013224178521315</v>
+        <v>1.021762994978054</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.001332929001917</v>
+        <v>1.04772057911632</v>
       </c>
       <c r="D15">
-        <v>1.039057037791051</v>
+        <v>1.062135706369781</v>
       </c>
       <c r="E15">
-        <v>1.020628495678725</v>
+        <v>1.056101972352358</v>
       </c>
       <c r="F15">
-        <v>1.03604669887135</v>
+        <v>1.068962801837306</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051529474424646</v>
+        <v>1.04918341012652</v>
       </c>
       <c r="J15">
-        <v>1.030499607576779</v>
+        <v>1.054169436244647</v>
       </c>
       <c r="K15">
-        <v>1.053210107627641</v>
+        <v>1.065593214866273</v>
       </c>
       <c r="L15">
-        <v>1.035101771972068</v>
+        <v>1.059580684959892</v>
       </c>
       <c r="M15">
-        <v>1.050251069318771</v>
+        <v>1.07239663584516</v>
       </c>
       <c r="N15">
-        <v>1.013355159209252</v>
+        <v>1.021788129371825</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.004728033251295</v>
+        <v>1.048364766216019</v>
       </c>
       <c r="D16">
-        <v>1.041405966570356</v>
+        <v>1.062594112691827</v>
       </c>
       <c r="E16">
-        <v>1.02336050728302</v>
+        <v>1.05665339700011</v>
       </c>
       <c r="F16">
-        <v>1.038805226460972</v>
+        <v>1.069517877398703</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052619883906651</v>
+        <v>1.049355624791456</v>
       </c>
       <c r="J16">
-        <v>1.032679122639401</v>
+        <v>1.054597557266613</v>
       </c>
       <c r="K16">
-        <v>1.055031206836419</v>
+        <v>1.06593945326583</v>
       </c>
       <c r="L16">
-        <v>1.037284934497746</v>
+        <v>1.060018884766167</v>
       </c>
       <c r="M16">
-        <v>1.052472762172903</v>
+        <v>1.072840046946207</v>
       </c>
       <c r="N16">
-        <v>1.01410998868346</v>
+        <v>1.021934365010454</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.006829589784656</v>
+        <v>1.048769009988765</v>
       </c>
       <c r="D17">
-        <v>1.04286210330276</v>
+        <v>1.062881778033217</v>
       </c>
       <c r="E17">
-        <v>1.025054184354508</v>
+        <v>1.056999541158105</v>
       </c>
       <c r="F17">
-        <v>1.040515487064669</v>
+        <v>1.06986630213855</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053292624562809</v>
+        <v>1.049463349178802</v>
       </c>
       <c r="J17">
-        <v>1.034027823404997</v>
+        <v>1.054866071764068</v>
       </c>
       <c r="K17">
-        <v>1.056158143419727</v>
+        <v>1.066156535996154</v>
       </c>
       <c r="L17">
-        <v>1.038636734834578</v>
+        <v>1.060293794893313</v>
       </c>
       <c r="M17">
-        <v>1.053848563283771</v>
+        <v>1.07311821608782</v>
       </c>
       <c r="N17">
-        <v>1.014576985861922</v>
+        <v>1.022026043955145</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.00804555561681</v>
+        <v>1.049004856886725</v>
       </c>
       <c r="D18">
-        <v>1.043705368083602</v>
+        <v>1.063049610896742</v>
       </c>
       <c r="E18">
-        <v>1.02603505028721</v>
+        <v>1.057201530975296</v>
       </c>
       <c r="F18">
-        <v>1.041506003819108</v>
+        <v>1.070069618691214</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053681056405358</v>
+        <v>1.04952607426072</v>
       </c>
       <c r="J18">
-        <v>1.034808019819159</v>
+        <v>1.055022679090956</v>
       </c>
       <c r="K18">
-        <v>1.056810049697055</v>
+        <v>1.066283119104788</v>
       </c>
       <c r="L18">
-        <v>1.039419023929729</v>
+        <v>1.060454159113563</v>
       </c>
       <c r="M18">
-        <v>1.054644788023168</v>
+        <v>1.073280477620402</v>
       </c>
       <c r="N18">
-        <v>1.014847096622855</v>
+        <v>1.02207950032084</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.008458526850345</v>
+        <v>1.049085284469176</v>
       </c>
       <c r="D19">
-        <v>1.043991883294423</v>
+        <v>1.06310684474227</v>
       </c>
       <c r="E19">
-        <v>1.026368326258926</v>
+        <v>1.057270419481474</v>
       </c>
       <c r="F19">
-        <v>1.041842566335738</v>
+        <v>1.070138958983188</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053812836756688</v>
+        <v>1.049547443437005</v>
       </c>
       <c r="J19">
-        <v>1.035072963651051</v>
+        <v>1.05507607598004</v>
       </c>
       <c r="K19">
-        <v>1.057031426061672</v>
+        <v>1.066326274273167</v>
       </c>
       <c r="L19">
-        <v>1.039684728904108</v>
+        <v>1.060508841484723</v>
       </c>
       <c r="M19">
-        <v>1.054915233637246</v>
+        <v>1.073335806307987</v>
       </c>
       <c r="N19">
-        <v>1.014938815805914</v>
+        <v>1.022097724427594</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.006605136509996</v>
+        <v>1.048725632420076</v>
       </c>
       <c r="D20">
-        <v>1.042706505385407</v>
+        <v>1.062850909855531</v>
       </c>
       <c r="E20">
-        <v>1.024873200003278</v>
+        <v>1.056962393871453</v>
       </c>
       <c r="F20">
-        <v>1.040332725646166</v>
+        <v>1.06982891052682</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053220858014227</v>
+        <v>1.049451802614928</v>
       </c>
       <c r="J20">
-        <v>1.033883794402056</v>
+        <v>1.054837264002207</v>
       </c>
       <c r="K20">
-        <v>1.056037796934221</v>
+        <v>1.066133248953771</v>
       </c>
       <c r="L20">
-        <v>1.038492343653948</v>
+        <v>1.060264298205974</v>
       </c>
       <c r="M20">
-        <v>1.053701603561605</v>
+        <v>1.073088370111931</v>
       </c>
       <c r="N20">
-        <v>1.014527118657036</v>
+        <v>1.022016209574138</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.000461924053331</v>
+        <v>1.047557055407804</v>
       </c>
       <c r="D21">
-        <v>1.038455132407396</v>
+        <v>1.062019343606713</v>
       </c>
       <c r="E21">
-        <v>1.019928431520132</v>
+        <v>1.055962030399414</v>
       </c>
       <c r="F21">
-        <v>1.035339890202771</v>
+        <v>1.068821929934255</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0512490551601</v>
+        <v>1.049139588087719</v>
       </c>
       <c r="J21">
-        <v>1.029940345099672</v>
+        <v>1.054060716055133</v>
       </c>
       <c r="K21">
-        <v>1.052742834124627</v>
+        <v>1.065505265351909</v>
       </c>
       <c r="L21">
-        <v>1.034541840133405</v>
+        <v>1.059469428232068</v>
       </c>
       <c r="M21">
-        <v>1.049681304388057</v>
+        <v>1.072284052841078</v>
       </c>
       <c r="N21">
-        <v>1.013161442317415</v>
+        <v>1.021750981216963</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9965044229282677</v>
+        <v>1.046822852843425</v>
       </c>
       <c r="D22">
-        <v>1.035724019787243</v>
+        <v>1.061496896874225</v>
       </c>
       <c r="E22">
-        <v>1.016751860029935</v>
+        <v>1.055333878056871</v>
       </c>
       <c r="F22">
-        <v>1.032132994612475</v>
+        <v>1.068189586808088</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049971684726568</v>
+        <v>1.048942309843654</v>
       </c>
       <c r="J22">
-        <v>1.027398810711345</v>
+        <v>1.053572359989998</v>
       </c>
       <c r="K22">
-        <v>1.050619510397429</v>
+        <v>1.065110094751336</v>
       </c>
       <c r="L22">
-        <v>1.031998606996309</v>
+        <v>1.058969791530006</v>
       </c>
       <c r="M22">
-        <v>1.047093681005802</v>
+        <v>1.07177844475219</v>
       </c>
       <c r="N22">
-        <v>1.01228098384956</v>
+        <v>1.021584057920242</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9986117005079717</v>
+        <v>1.047212017323113</v>
       </c>
       <c r="D23">
-        <v>1.037177512515356</v>
+        <v>1.061773818192872</v>
       </c>
       <c r="E23">
-        <v>1.018442445363892</v>
+        <v>1.055666795823344</v>
       </c>
       <c r="F23">
-        <v>1.033839660047974</v>
+        <v>1.068524729010722</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050652504329345</v>
+        <v>1.049046983197182</v>
       </c>
       <c r="J23">
-        <v>1.028752206492366</v>
+        <v>1.053831256955321</v>
       </c>
       <c r="K23">
-        <v>1.051750164408492</v>
+        <v>1.065319613372404</v>
       </c>
       <c r="L23">
-        <v>1.033352635161146</v>
+        <v>1.059234645855906</v>
       </c>
       <c r="M23">
-        <v>1.048471285892652</v>
+        <v>1.072046467556568</v>
       </c>
       <c r="N23">
-        <v>1.012749861862231</v>
+        <v>1.021672562529912</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.006706587614057</v>
+        <v>1.048745232695873</v>
       </c>
       <c r="D24">
-        <v>1.042776832125648</v>
+        <v>1.062864857725018</v>
       </c>
       <c r="E24">
-        <v>1.024955000712871</v>
+        <v>1.056979178853956</v>
       </c>
       <c r="F24">
-        <v>1.040415329405238</v>
+        <v>1.069845805920116</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05325329846599</v>
+        <v>1.049457020346112</v>
       </c>
       <c r="J24">
-        <v>1.033948894888123</v>
+        <v>1.05485028102884</v>
       </c>
       <c r="K24">
-        <v>1.056092193040514</v>
+        <v>1.066143771482021</v>
       </c>
       <c r="L24">
-        <v>1.038557606914419</v>
+        <v>1.060277626446735</v>
       </c>
       <c r="M24">
-        <v>1.053768027632723</v>
+        <v>1.073101856192349</v>
       </c>
       <c r="N24">
-        <v>1.01454965853564</v>
+        <v>1.02202065336451</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.01571709535245</v>
+        <v>1.050526731162515</v>
       </c>
       <c r="D25">
-        <v>1.04903766670602</v>
+        <v>1.064132612371233</v>
       </c>
       <c r="E25">
-        <v>1.032238628990745</v>
+        <v>1.058505644735652</v>
       </c>
       <c r="F25">
-        <v>1.047771295571004</v>
+        <v>1.071382223107872</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056116586527266</v>
+        <v>1.049928578777183</v>
       </c>
       <c r="J25">
-        <v>1.039726851713497</v>
+        <v>1.056032303756731</v>
       </c>
       <c r="K25">
-        <v>1.060919607535042</v>
+        <v>1.06709868384963</v>
       </c>
       <c r="L25">
-        <v>1.044356277455969</v>
+        <v>1.061488485661309</v>
       </c>
       <c r="M25">
-        <v>1.059670672819118</v>
+        <v>1.074326971850839</v>
       </c>
       <c r="N25">
-        <v>1.016549285803458</v>
+        <v>1.02242386999661</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_24/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.051949480937346</v>
+        <v>1.022625186580887</v>
       </c>
       <c r="D2">
-        <v>1.065145065419707</v>
+        <v>1.053856394609516</v>
       </c>
       <c r="E2">
-        <v>1.059725950246125</v>
+        <v>1.037847641708096</v>
       </c>
       <c r="F2">
-        <v>1.072610349036436</v>
+        <v>1.053436844793272</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050301235574709</v>
+        <v>1.058284482726185</v>
       </c>
       <c r="J2">
-        <v>1.056974657534808</v>
+        <v>1.044149617212242</v>
       </c>
       <c r="K2">
-        <v>1.06785909540213</v>
+        <v>1.064613149547615</v>
       </c>
       <c r="L2">
-        <v>1.062454669563306</v>
+        <v>1.048803726256634</v>
       </c>
       <c r="M2">
-        <v>1.075304406058649</v>
+        <v>1.064198727532141</v>
       </c>
       <c r="N2">
-        <v>1.022744879528077</v>
+        <v>1.018078425893941</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.052983580757472</v>
+        <v>1.027493023629131</v>
       </c>
       <c r="D3">
-        <v>1.065880925245218</v>
+        <v>1.057261052072685</v>
       </c>
       <c r="E3">
-        <v>1.060613607450938</v>
+        <v>1.041813254260606</v>
       </c>
       <c r="F3">
-        <v>1.073503613925229</v>
+        <v>1.05744265205912</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050569804805662</v>
+        <v>1.059795402548138</v>
       </c>
       <c r="J3">
-        <v>1.057658633487758</v>
+        <v>1.047261262398262</v>
       </c>
       <c r="K3">
-        <v>1.068410496177307</v>
+        <v>1.067210165244016</v>
       </c>
       <c r="L3">
-        <v>1.063156427115526</v>
+        <v>1.051937683260382</v>
       </c>
       <c r="M3">
-        <v>1.076014259505734</v>
+        <v>1.067389741754161</v>
       </c>
       <c r="N3">
-        <v>1.02297761036921</v>
+        <v>1.019153253996732</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.053653200178864</v>
+        <v>1.030578436754473</v>
       </c>
       <c r="D4">
-        <v>1.066357405803037</v>
+        <v>1.059422731859422</v>
       </c>
       <c r="E4">
-        <v>1.061188719102321</v>
+        <v>1.044332537905606</v>
       </c>
       <c r="F4">
-        <v>1.074082320460776</v>
+        <v>1.059987495476905</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050742653170084</v>
+        <v>1.060745061102079</v>
       </c>
       <c r="J4">
-        <v>1.058101089575183</v>
+        <v>1.049231017596628</v>
       </c>
       <c r="K4">
-        <v>1.068766948493543</v>
+        <v>1.068853213817757</v>
       </c>
       <c r="L4">
-        <v>1.06361060975824</v>
+        <v>1.053923805102805</v>
       </c>
       <c r="M4">
-        <v>1.076473646076237</v>
+        <v>1.069412068511828</v>
       </c>
       <c r="N4">
-        <v>1.023128038754151</v>
+        <v>1.019833139718473</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053934824405106</v>
+        <v>1.031860698229255</v>
       </c>
       <c r="D5">
-        <v>1.06655779593171</v>
+        <v>1.060321909287365</v>
       </c>
       <c r="E5">
-        <v>1.061430671650067</v>
+        <v>1.045380846812662</v>
       </c>
       <c r="F5">
-        <v>1.074325776090624</v>
+        <v>1.06104643504615</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050815094566388</v>
+        <v>1.061137762613378</v>
       </c>
       <c r="J5">
-        <v>1.058287068168056</v>
+        <v>1.050048983451464</v>
       </c>
       <c r="K5">
-        <v>1.068916718501652</v>
+        <v>1.06953525824823</v>
       </c>
       <c r="L5">
-        <v>1.063801570889876</v>
+        <v>1.054749099405014</v>
       </c>
       <c r="M5">
-        <v>1.076666786495708</v>
+        <v>1.070252407497755</v>
       </c>
       <c r="N5">
-        <v>1.023191239232165</v>
+        <v>1.020115341891007</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053982117151856</v>
+        <v>1.032075141071104</v>
       </c>
       <c r="D6">
-        <v>1.066591446834442</v>
+        <v>1.060472331326734</v>
       </c>
       <c r="E6">
-        <v>1.061471306813681</v>
+        <v>1.045556240280915</v>
       </c>
       <c r="F6">
-        <v>1.074366663142739</v>
+        <v>1.061223606526461</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050827244642875</v>
+        <v>1.061203320499972</v>
       </c>
       <c r="J6">
-        <v>1.058318293015289</v>
+        <v>1.050185739677706</v>
       </c>
       <c r="K6">
-        <v>1.068941860677104</v>
+        <v>1.06964927403272</v>
       </c>
       <c r="L6">
-        <v>1.063833635413423</v>
+        <v>1.054887111985742</v>
       </c>
       <c r="M6">
-        <v>1.076699216431883</v>
+        <v>1.070392935705109</v>
       </c>
       <c r="N6">
-        <v>1.023201848537442</v>
+        <v>1.02016251566966</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.053656962799538</v>
+        <v>1.0305956279943</v>
       </c>
       <c r="D7">
-        <v>1.066360083122073</v>
+        <v>1.059434784005809</v>
       </c>
       <c r="E7">
-        <v>1.061191951395442</v>
+        <v>1.044346587385998</v>
       </c>
       <c r="F7">
-        <v>1.07408557287059</v>
+        <v>1.060001687464309</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050743622016552</v>
+        <v>1.060750333857246</v>
       </c>
       <c r="J7">
-        <v>1.058103574748804</v>
+        <v>1.049241986620416</v>
       </c>
       <c r="K7">
-        <v>1.068768950053251</v>
+        <v>1.068862361152724</v>
       </c>
       <c r="L7">
-        <v>1.063613161301904</v>
+        <v>1.053934870307508</v>
       </c>
       <c r="M7">
-        <v>1.076476226773013</v>
+        <v>1.069423335441192</v>
       </c>
       <c r="N7">
-        <v>1.023128883398123</v>
+        <v>1.019836924603358</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.052298858512081</v>
+        <v>1.024283983854643</v>
       </c>
       <c r="D8">
-        <v>1.065393683566723</v>
+        <v>1.05501576962385</v>
       </c>
       <c r="E8">
-        <v>1.060025784673981</v>
+        <v>1.039197756367906</v>
       </c>
       <c r="F8">
-        <v>1.072912085488272</v>
+        <v>1.054800631872593</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050392192880889</v>
+        <v>1.058801009531139</v>
       </c>
       <c r="J8">
-        <v>1.057205835257859</v>
+        <v>1.04521046802755</v>
       </c>
       <c r="K8">
-        <v>1.068045513884537</v>
+        <v>1.065498725990083</v>
       </c>
       <c r="L8">
-        <v>1.062691810889071</v>
+        <v>1.049871709235615</v>
       </c>
       <c r="M8">
-        <v>1.075544290518204</v>
+        <v>1.065286138326051</v>
       </c>
       <c r="N8">
-        <v>1.02282356576148</v>
+        <v>1.018444968968206</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.049909463796273</v>
+        <v>1.012641533021612</v>
       </c>
       <c r="D9">
-        <v>1.06369334968572</v>
+        <v>1.046897445949349</v>
       </c>
       <c r="E9">
-        <v>1.057976550803803</v>
+        <v>1.029748401889065</v>
       </c>
       <c r="F9">
-        <v>1.070849700429148</v>
+        <v>1.045256168848159</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04976579868358</v>
+        <v>1.055143442720851</v>
       </c>
       <c r="J9">
-        <v>1.055623000147556</v>
+        <v>1.037755650119262</v>
       </c>
       <c r="K9">
-        <v>1.06676815802904</v>
+        <v>1.059272857590359</v>
       </c>
       <c r="L9">
-        <v>1.06106906632969</v>
+        <v>1.042376589969484</v>
       </c>
       <c r="M9">
-        <v>1.073902633389256</v>
+        <v>1.057655317828635</v>
       </c>
       <c r="N9">
-        <v>1.022284316015444</v>
+        <v>1.015867309871987</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.048319090682833</v>
+        <v>1.004489185420381</v>
       </c>
       <c r="D10">
-        <v>1.062561609525225</v>
+        <v>1.041240576119199</v>
       </c>
       <c r="E10">
-        <v>1.056614291551687</v>
+        <v>1.023168140694826</v>
       </c>
       <c r="F10">
-        <v>1.06947851375416</v>
+        <v>1.038610983094191</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049343436197162</v>
+        <v>1.052543314928327</v>
       </c>
       <c r="J10">
-        <v>1.054567210849264</v>
+        <v>1.032525817719019</v>
       </c>
       <c r="K10">
-        <v>1.065914915764914</v>
+        <v>1.054903109966029</v>
       </c>
       <c r="L10">
-        <v>1.059987819160865</v>
+        <v>1.037131318375535</v>
       </c>
       <c r="M10">
-        <v>1.072808612555321</v>
+        <v>1.052316425335771</v>
       </c>
       <c r="N10">
-        <v>1.02192400192362</v>
+        <v>1.014056900823448</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.047631053589015</v>
+        <v>1.000856538387347</v>
       </c>
       <c r="D11">
-        <v>1.062072000313595</v>
+        <v>1.038727793397783</v>
       </c>
       <c r="E11">
-        <v>1.056025355578956</v>
+        <v>1.020245558278591</v>
       </c>
       <c r="F11">
-        <v>1.068885676094689</v>
+        <v>1.035660069564418</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049159423842564</v>
+        <v>1.051376134096185</v>
       </c>
       <c r="J11">
-        <v>1.054109916582076</v>
+        <v>1.030193727723001</v>
       </c>
       <c r="K11">
-        <v>1.065545067414227</v>
+        <v>1.052954538373184</v>
       </c>
       <c r="L11">
-        <v>1.0595197755069</v>
+        <v>1.034795512668449</v>
       </c>
       <c r="M11">
-        <v>1.072335000454911</v>
+        <v>1.04993942914968</v>
       </c>
       <c r="N11">
-        <v>1.021767792940113</v>
+        <v>1.013249210110461</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.047375577236339</v>
+        <v>0.9994908756967847</v>
       </c>
       <c r="D12">
-        <v>1.061890205292405</v>
+        <v>1.037784436741976</v>
       </c>
       <c r="E12">
-        <v>1.055806739465434</v>
+        <v>1.019148355454055</v>
       </c>
       <c r="F12">
-        <v>1.068665605463892</v>
+        <v>1.034552324213101</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049090904631578</v>
+        <v>1.050936114606835</v>
       </c>
       <c r="J12">
-        <v>1.053940038141905</v>
+        <v>1.029316798217951</v>
       </c>
       <c r="K12">
-        <v>1.065407631743415</v>
+        <v>1.052221863641836</v>
       </c>
       <c r="L12">
-        <v>1.059345945587597</v>
+        <v>1.033917673579542</v>
       </c>
       <c r="M12">
-        <v>1.07215909670951</v>
+        <v>1.049046201510007</v>
       </c>
       <c r="N12">
-        <v>1.021709741647211</v>
+        <v>1.012945446383691</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04743037364555</v>
+        <v>0.9997845696946032</v>
       </c>
       <c r="D13">
-        <v>1.061929197860298</v>
+        <v>1.037987250484324</v>
       </c>
       <c r="E13">
-        <v>1.055853626970228</v>
+        <v>1.019384245625798</v>
       </c>
       <c r="F13">
-        <v>1.068712805202916</v>
+        <v>1.034790476419448</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049105609867862</v>
+        <v>1.051030797914386</v>
       </c>
       <c r="J13">
-        <v>1.053976478493215</v>
+        <v>1.029505395315955</v>
       </c>
       <c r="K13">
-        <v>1.065437114750208</v>
+        <v>1.052379433960399</v>
       </c>
       <c r="L13">
-        <v>1.059383231672294</v>
+        <v>1.03410644407367</v>
       </c>
       <c r="M13">
-        <v>1.072196827881384</v>
+        <v>1.049238276745517</v>
       </c>
       <c r="N13">
-        <v>1.021722195123135</v>
+        <v>1.01301077752903</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.047609933970186</v>
+        <v>1.000743991076329</v>
       </c>
       <c r="D14">
-        <v>1.062056971693243</v>
+        <v>1.038650022100339</v>
       </c>
       <c r="E14">
-        <v>1.056007281822021</v>
+        <v>1.020155104020898</v>
       </c>
       <c r="F14">
-        <v>1.068867482213225</v>
+        <v>1.035568744162819</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049153763464773</v>
+        <v>1.051339895699908</v>
       </c>
       <c r="J14">
-        <v>1.054095874760958</v>
+        <v>1.030121461742069</v>
       </c>
       <c r="K14">
-        <v>1.065533708107164</v>
+        <v>1.052894159038441</v>
       </c>
       <c r="L14">
-        <v>1.059505406211468</v>
+        <v>1.034723161751654</v>
       </c>
       <c r="M14">
-        <v>1.072320459846788</v>
+        <v>1.04986580795902</v>
       </c>
       <c r="N14">
-        <v>1.021762994978054</v>
+        <v>1.013224178521315</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.04772057911632</v>
+        <v>1.001332929001917</v>
       </c>
       <c r="D15">
-        <v>1.062135706369781</v>
+        <v>1.039057037791051</v>
       </c>
       <c r="E15">
-        <v>1.056101972352358</v>
+        <v>1.020628495678724</v>
       </c>
       <c r="F15">
-        <v>1.068962801837306</v>
+        <v>1.03604669887135</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04918341012652</v>
+        <v>1.051529474424646</v>
       </c>
       <c r="J15">
-        <v>1.054169436244647</v>
+        <v>1.030499607576779</v>
       </c>
       <c r="K15">
-        <v>1.065593214866273</v>
+        <v>1.053210107627641</v>
       </c>
       <c r="L15">
-        <v>1.059580684959892</v>
+        <v>1.035101771972067</v>
       </c>
       <c r="M15">
-        <v>1.07239663584516</v>
+        <v>1.050251069318771</v>
       </c>
       <c r="N15">
-        <v>1.021788129371825</v>
+        <v>1.013355159209252</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.048364766216019</v>
+        <v>1.004728033251294</v>
       </c>
       <c r="D16">
-        <v>1.062594112691827</v>
+        <v>1.041405966570355</v>
       </c>
       <c r="E16">
-        <v>1.05665339700011</v>
+        <v>1.023360507283019</v>
       </c>
       <c r="F16">
-        <v>1.069517877398703</v>
+        <v>1.038805226460972</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049355624791456</v>
+        <v>1.052619883906651</v>
       </c>
       <c r="J16">
-        <v>1.054597557266613</v>
+        <v>1.0326791226394</v>
       </c>
       <c r="K16">
-        <v>1.06593945326583</v>
+        <v>1.055031206836418</v>
       </c>
       <c r="L16">
-        <v>1.060018884766167</v>
+        <v>1.037284934497746</v>
       </c>
       <c r="M16">
-        <v>1.072840046946207</v>
+        <v>1.052472762172902</v>
       </c>
       <c r="N16">
-        <v>1.021934365010454</v>
+        <v>1.01410998868346</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048769009988765</v>
+        <v>1.006829589784657</v>
       </c>
       <c r="D17">
-        <v>1.062881778033217</v>
+        <v>1.042862103302761</v>
       </c>
       <c r="E17">
-        <v>1.056999541158105</v>
+        <v>1.025054184354509</v>
       </c>
       <c r="F17">
-        <v>1.06986630213855</v>
+        <v>1.04051548706467</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049463349178802</v>
+        <v>1.05329262456281</v>
       </c>
       <c r="J17">
-        <v>1.054866071764068</v>
+        <v>1.034027823404997</v>
       </c>
       <c r="K17">
-        <v>1.066156535996154</v>
+        <v>1.056158143419728</v>
       </c>
       <c r="L17">
-        <v>1.060293794893313</v>
+        <v>1.038636734834578</v>
       </c>
       <c r="M17">
-        <v>1.07311821608782</v>
+        <v>1.053848563283772</v>
       </c>
       <c r="N17">
-        <v>1.022026043955145</v>
+        <v>1.014576985861922</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.049004856886725</v>
+        <v>1.00804555561681</v>
       </c>
       <c r="D18">
-        <v>1.063049610896742</v>
+        <v>1.043705368083601</v>
       </c>
       <c r="E18">
-        <v>1.057201530975296</v>
+        <v>1.026035050287209</v>
       </c>
       <c r="F18">
-        <v>1.070069618691214</v>
+        <v>1.041506003819107</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04952607426072</v>
+        <v>1.053681056405358</v>
       </c>
       <c r="J18">
-        <v>1.055022679090956</v>
+        <v>1.034808019819158</v>
       </c>
       <c r="K18">
-        <v>1.066283119104788</v>
+        <v>1.056810049697054</v>
       </c>
       <c r="L18">
-        <v>1.060454159113563</v>
+        <v>1.039419023929728</v>
       </c>
       <c r="M18">
-        <v>1.073280477620402</v>
+        <v>1.054644788023166</v>
       </c>
       <c r="N18">
-        <v>1.02207950032084</v>
+        <v>1.014847096622855</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.049085284469176</v>
+        <v>1.008458526850345</v>
       </c>
       <c r="D19">
-        <v>1.06310684474227</v>
+        <v>1.043991883294423</v>
       </c>
       <c r="E19">
-        <v>1.057270419481474</v>
+        <v>1.026368326258926</v>
       </c>
       <c r="F19">
-        <v>1.070138958983188</v>
+        <v>1.041842566335738</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049547443437005</v>
+        <v>1.053812836756688</v>
       </c>
       <c r="J19">
-        <v>1.05507607598004</v>
+        <v>1.035072963651051</v>
       </c>
       <c r="K19">
-        <v>1.066326274273167</v>
+        <v>1.057031426061672</v>
       </c>
       <c r="L19">
-        <v>1.060508841484723</v>
+        <v>1.039684728904109</v>
       </c>
       <c r="M19">
-        <v>1.073335806307987</v>
+        <v>1.054915233637246</v>
       </c>
       <c r="N19">
-        <v>1.022097724427594</v>
+        <v>1.014938815805914</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.048725632420076</v>
+        <v>1.006605136509995</v>
       </c>
       <c r="D20">
-        <v>1.062850909855531</v>
+        <v>1.042706505385407</v>
       </c>
       <c r="E20">
-        <v>1.056962393871453</v>
+        <v>1.024873200003278</v>
       </c>
       <c r="F20">
-        <v>1.06982891052682</v>
+        <v>1.040332725646166</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049451802614928</v>
+        <v>1.053220858014226</v>
       </c>
       <c r="J20">
-        <v>1.054837264002207</v>
+        <v>1.033883794402056</v>
       </c>
       <c r="K20">
-        <v>1.066133248953771</v>
+        <v>1.056037796934221</v>
       </c>
       <c r="L20">
-        <v>1.060264298205974</v>
+        <v>1.038492343653948</v>
       </c>
       <c r="M20">
-        <v>1.073088370111931</v>
+        <v>1.053701603561604</v>
       </c>
       <c r="N20">
-        <v>1.022016209574138</v>
+        <v>1.014527118657036</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.047557055407804</v>
+        <v>1.000461924053331</v>
       </c>
       <c r="D21">
-        <v>1.062019343606713</v>
+        <v>1.038455132407396</v>
       </c>
       <c r="E21">
-        <v>1.055962030399414</v>
+        <v>1.019928431520132</v>
       </c>
       <c r="F21">
-        <v>1.068821929934255</v>
+        <v>1.035339890202771</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049139588087719</v>
+        <v>1.0512490551601</v>
       </c>
       <c r="J21">
-        <v>1.054060716055133</v>
+        <v>1.029940345099672</v>
       </c>
       <c r="K21">
-        <v>1.065505265351909</v>
+        <v>1.052742834124627</v>
       </c>
       <c r="L21">
-        <v>1.059469428232068</v>
+        <v>1.034541840133405</v>
       </c>
       <c r="M21">
-        <v>1.072284052841078</v>
+        <v>1.049681304388056</v>
       </c>
       <c r="N21">
-        <v>1.021750981216963</v>
+        <v>1.013161442317415</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.046822852843425</v>
+        <v>0.9965044229282676</v>
       </c>
       <c r="D22">
-        <v>1.061496896874225</v>
+        <v>1.035724019787243</v>
       </c>
       <c r="E22">
-        <v>1.055333878056871</v>
+        <v>1.016751860029935</v>
       </c>
       <c r="F22">
-        <v>1.068189586808088</v>
+        <v>1.032132994612475</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048942309843654</v>
+        <v>1.049971684726568</v>
       </c>
       <c r="J22">
-        <v>1.053572359989998</v>
+        <v>1.027398810711345</v>
       </c>
       <c r="K22">
-        <v>1.065110094751336</v>
+        <v>1.050619510397429</v>
       </c>
       <c r="L22">
-        <v>1.058969791530006</v>
+        <v>1.031998606996309</v>
       </c>
       <c r="M22">
-        <v>1.07177844475219</v>
+        <v>1.047093681005803</v>
       </c>
       <c r="N22">
-        <v>1.021584057920242</v>
+        <v>1.01228098384956</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.047212017323113</v>
+        <v>0.9986117005079713</v>
       </c>
       <c r="D23">
-        <v>1.061773818192872</v>
+        <v>1.037177512515356</v>
       </c>
       <c r="E23">
-        <v>1.055666795823344</v>
+        <v>1.018442445363891</v>
       </c>
       <c r="F23">
-        <v>1.068524729010722</v>
+        <v>1.033839660047974</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049046983197182</v>
+        <v>1.050652504329345</v>
       </c>
       <c r="J23">
-        <v>1.053831256955321</v>
+        <v>1.028752206492365</v>
       </c>
       <c r="K23">
-        <v>1.065319613372404</v>
+        <v>1.051750164408491</v>
       </c>
       <c r="L23">
-        <v>1.059234645855906</v>
+        <v>1.033352635161146</v>
       </c>
       <c r="M23">
-        <v>1.072046467556568</v>
+        <v>1.048471285892652</v>
       </c>
       <c r="N23">
-        <v>1.021672562529912</v>
+        <v>1.012749861862231</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048745232695873</v>
+        <v>1.006706587614057</v>
       </c>
       <c r="D24">
-        <v>1.062864857725018</v>
+        <v>1.042776832125648</v>
       </c>
       <c r="E24">
-        <v>1.056979178853956</v>
+        <v>1.024955000712871</v>
       </c>
       <c r="F24">
-        <v>1.069845805920116</v>
+        <v>1.040415329405238</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049457020346112</v>
+        <v>1.05325329846599</v>
       </c>
       <c r="J24">
-        <v>1.05485028102884</v>
+        <v>1.033948894888122</v>
       </c>
       <c r="K24">
-        <v>1.066143771482021</v>
+        <v>1.056092193040514</v>
       </c>
       <c r="L24">
-        <v>1.060277626446735</v>
+        <v>1.038557606914418</v>
       </c>
       <c r="M24">
-        <v>1.073101856192349</v>
+        <v>1.053768027632723</v>
       </c>
       <c r="N24">
-        <v>1.02202065336451</v>
+        <v>1.014549658535639</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.050526731162515</v>
+        <v>1.015717095352449</v>
       </c>
       <c r="D25">
-        <v>1.064132612371233</v>
+        <v>1.049037666706019</v>
       </c>
       <c r="E25">
-        <v>1.058505644735652</v>
+        <v>1.032238628990744</v>
       </c>
       <c r="F25">
-        <v>1.071382223107872</v>
+        <v>1.047771295571002</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049928578777183</v>
+        <v>1.056116586527265</v>
       </c>
       <c r="J25">
-        <v>1.056032303756731</v>
+        <v>1.039726851713496</v>
       </c>
       <c r="K25">
-        <v>1.06709868384963</v>
+        <v>1.060919607535041</v>
       </c>
       <c r="L25">
-        <v>1.061488485661309</v>
+        <v>1.044356277455968</v>
       </c>
       <c r="M25">
-        <v>1.074326971850839</v>
+        <v>1.059670672819116</v>
       </c>
       <c r="N25">
-        <v>1.02242386999661</v>
+        <v>1.016549285803457</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_24/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022625186580887</v>
+        <v>1.00595572315097</v>
       </c>
       <c r="D2">
-        <v>1.053856394609516</v>
+        <v>1.044300154837104</v>
       </c>
       <c r="E2">
-        <v>1.037847641708096</v>
+        <v>1.011457282439316</v>
       </c>
       <c r="F2">
-        <v>1.053436844793272</v>
+        <v>1.041499090302217</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058284482726185</v>
+        <v>1.054814313638816</v>
       </c>
       <c r="J2">
-        <v>1.044149617212242</v>
+        <v>1.02795974715875</v>
       </c>
       <c r="K2">
-        <v>1.064613149547615</v>
+        <v>1.055174980958157</v>
       </c>
       <c r="L2">
-        <v>1.048803726256634</v>
+        <v>1.022759273832241</v>
       </c>
       <c r="M2">
-        <v>1.064198727532141</v>
+        <v>1.052409036803639</v>
       </c>
       <c r="N2">
-        <v>1.018078425893941</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012849949663285</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.050050565481487</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.050083665641145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027493023629131</v>
+        <v>1.010498514426581</v>
       </c>
       <c r="D3">
-        <v>1.057261052072685</v>
+        <v>1.046600075302908</v>
       </c>
       <c r="E3">
-        <v>1.041813254260606</v>
+        <v>1.015104058617535</v>
       </c>
       <c r="F3">
-        <v>1.05744265205912</v>
+        <v>1.044165869913206</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059795402548138</v>
+        <v>1.055993634211551</v>
       </c>
       <c r="J3">
-        <v>1.047261262398262</v>
+        <v>1.030707014123377</v>
       </c>
       <c r="K3">
-        <v>1.067210165244016</v>
+        <v>1.056669496314416</v>
       </c>
       <c r="L3">
-        <v>1.051937683260382</v>
+        <v>1.025547260020636</v>
       </c>
       <c r="M3">
-        <v>1.067389741754161</v>
+        <v>1.054263185899281</v>
       </c>
       <c r="N3">
-        <v>1.019153253996732</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01380488221096</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.051517979623215</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.051137760962401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030578436754473</v>
+        <v>1.013378776199656</v>
       </c>
       <c r="D4">
-        <v>1.059422731859422</v>
+        <v>1.048065679453882</v>
       </c>
       <c r="E4">
-        <v>1.044332537905606</v>
+        <v>1.017422100679669</v>
       </c>
       <c r="F4">
-        <v>1.059987495476905</v>
+        <v>1.045866952287363</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060745061102079</v>
+        <v>1.056732511059604</v>
       </c>
       <c r="J4">
-        <v>1.049231017596628</v>
+        <v>1.032446334350374</v>
       </c>
       <c r="K4">
-        <v>1.068853213817757</v>
+        <v>1.057616642071811</v>
       </c>
       <c r="L4">
-        <v>1.053923805102805</v>
+        <v>1.027314707043641</v>
       </c>
       <c r="M4">
-        <v>1.069412068511828</v>
+        <v>1.05544161059255</v>
       </c>
       <c r="N4">
-        <v>1.019833139718473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014409247829022</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.052450609202912</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.051808335003928</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031860698229255</v>
+        <v>1.014578417586981</v>
       </c>
       <c r="D5">
-        <v>1.060321909287365</v>
+        <v>1.048682039615876</v>
       </c>
       <c r="E5">
-        <v>1.045380846812662</v>
+        <v>1.018389469399161</v>
       </c>
       <c r="F5">
-        <v>1.06104643504615</v>
+        <v>1.046579904065537</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061137762613378</v>
+        <v>1.057040021626666</v>
       </c>
       <c r="J5">
-        <v>1.050048983451464</v>
+        <v>1.03317104217052</v>
       </c>
       <c r="K5">
-        <v>1.06953525824823</v>
+        <v>1.058015602502268</v>
       </c>
       <c r="L5">
-        <v>1.054749099405014</v>
+        <v>1.028051736352957</v>
       </c>
       <c r="M5">
-        <v>1.070252407497755</v>
+        <v>1.055935525744552</v>
       </c>
       <c r="N5">
-        <v>1.020115341891007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014661866311001</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.052841503485741</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.052097480276209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032075141071104</v>
+        <v>1.014782046558028</v>
       </c>
       <c r="D6">
-        <v>1.060472331326734</v>
+        <v>1.048791898269967</v>
       </c>
       <c r="E6">
-        <v>1.045556240280915</v>
+        <v>1.018554392177661</v>
       </c>
       <c r="F6">
-        <v>1.061223606526461</v>
+        <v>1.046703551249007</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061203320499972</v>
+        <v>1.057094442457926</v>
       </c>
       <c r="J6">
-        <v>1.050185739677706</v>
+        <v>1.033295130710463</v>
       </c>
       <c r="K6">
-        <v>1.06964927403272</v>
+        <v>1.058088924988357</v>
       </c>
       <c r="L6">
-        <v>1.054887111985742</v>
+        <v>1.028178016309646</v>
       </c>
       <c r="M6">
-        <v>1.070392935705109</v>
+        <v>1.056022392823061</v>
       </c>
       <c r="N6">
-        <v>1.02016251566966</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01470616562388</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.052910251799819</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.052157928066523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.0305956279943</v>
+        <v>1.013402936591261</v>
       </c>
       <c r="D7">
-        <v>1.059434784005809</v>
+        <v>1.048091840682658</v>
       </c>
       <c r="E7">
-        <v>1.044346587385998</v>
+        <v>1.017443326308682</v>
       </c>
       <c r="F7">
-        <v>1.060001687464309</v>
+        <v>1.045887954967606</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060750333857246</v>
+        <v>1.056745004612405</v>
       </c>
       <c r="J7">
-        <v>1.049241986620416</v>
+        <v>1.032463930885213</v>
       </c>
       <c r="K7">
-        <v>1.068862361152724</v>
+        <v>1.057639703589643</v>
       </c>
       <c r="L7">
-        <v>1.053934870307508</v>
+        <v>1.02733275487744</v>
       </c>
       <c r="M7">
-        <v>1.069423335441192</v>
+        <v>1.055459559960647</v>
       </c>
       <c r="N7">
-        <v>1.019836924603358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014418240843703</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.052464814693665</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.05184443146682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024283983854643</v>
+        <v>1.007513754764428</v>
       </c>
       <c r="D8">
-        <v>1.05501576962385</v>
+        <v>1.045104359886574</v>
       </c>
       <c r="E8">
-        <v>1.039197756367906</v>
+        <v>1.012709073758893</v>
       </c>
       <c r="F8">
-        <v>1.054800631872593</v>
+        <v>1.042419704649431</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058801009531139</v>
+        <v>1.055228293201932</v>
       </c>
       <c r="J8">
-        <v>1.04521046802755</v>
+        <v>1.028906221638972</v>
       </c>
       <c r="K8">
-        <v>1.065498725990083</v>
+        <v>1.055706152595556</v>
       </c>
       <c r="L8">
-        <v>1.049871709235615</v>
+        <v>1.023719601081494</v>
       </c>
       <c r="M8">
-        <v>1.065286138326051</v>
+        <v>1.053054169400183</v>
       </c>
       <c r="N8">
-        <v>1.018444968968206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013182738453188</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.050561137853046</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.050481787676916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012641533021612</v>
+        <v>0.9966458437712337</v>
       </c>
       <c r="D9">
-        <v>1.046897445949349</v>
+        <v>1.039631728886169</v>
       </c>
       <c r="E9">
-        <v>1.029748401889065</v>
+        <v>1.004018456713515</v>
       </c>
       <c r="F9">
-        <v>1.045256168848159</v>
+        <v>1.036094229077278</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055143442720851</v>
+        <v>1.052351156808543</v>
       </c>
       <c r="J9">
-        <v>1.037755650119262</v>
+        <v>1.022317604477908</v>
       </c>
       <c r="K9">
-        <v>1.059272857590359</v>
+        <v>1.052112944320838</v>
       </c>
       <c r="L9">
-        <v>1.042376589969484</v>
+        <v>1.017046671977906</v>
       </c>
       <c r="M9">
-        <v>1.057655317828635</v>
+        <v>1.048627640356187</v>
       </c>
       <c r="N9">
-        <v>1.015867309871987</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010888383412847</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.047057876679129</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.047938100620842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004489185420381</v>
+        <v>0.9891049911640366</v>
       </c>
       <c r="D10">
-        <v>1.041240576119199</v>
+        <v>1.035933264196402</v>
       </c>
       <c r="E10">
-        <v>1.023168140694826</v>
+        <v>0.9980358892799681</v>
       </c>
       <c r="F10">
-        <v>1.038610983094191</v>
+        <v>1.031862678183041</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052543314928327</v>
+        <v>1.050339505519954</v>
       </c>
       <c r="J10">
-        <v>1.032525817719019</v>
+        <v>1.01775764335773</v>
       </c>
       <c r="K10">
-        <v>1.054903109966029</v>
+        <v>1.04968268810892</v>
       </c>
       <c r="L10">
-        <v>1.037131318375535</v>
+        <v>1.012440697137609</v>
       </c>
       <c r="M10">
-        <v>1.052316425335771</v>
+        <v>1.045679524856438</v>
       </c>
       <c r="N10">
-        <v>1.014056900823448</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009315149631822</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.044775706515316</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.046236373042976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000856538387347</v>
+        <v>0.986203539801322</v>
       </c>
       <c r="D11">
-        <v>1.038727793397783</v>
+        <v>1.034912336279346</v>
       </c>
       <c r="E11">
-        <v>1.020245558278591</v>
+        <v>0.9958315634241739</v>
       </c>
       <c r="F11">
-        <v>1.035660069564418</v>
+        <v>1.030991541169457</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051376134096185</v>
+        <v>1.049760092531619</v>
       </c>
       <c r="J11">
-        <v>1.030193727723001</v>
+        <v>1.016161748060532</v>
       </c>
       <c r="K11">
-        <v>1.052954538373184</v>
+        <v>1.049204581403325</v>
       </c>
       <c r="L11">
-        <v>1.034795512668449</v>
+        <v>1.010832520834884</v>
       </c>
       <c r="M11">
-        <v>1.04993942914968</v>
+        <v>1.045351748699307</v>
       </c>
       <c r="N11">
-        <v>1.013249210110461</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008886893273348</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.044949284920926</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.045930711000434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9994908756967847</v>
+        <v>0.9852475543379082</v>
       </c>
       <c r="D12">
-        <v>1.037784436741976</v>
+        <v>1.034721959397275</v>
       </c>
       <c r="E12">
-        <v>1.019148355454055</v>
+        <v>0.9951425031764412</v>
       </c>
       <c r="F12">
-        <v>1.034552324213101</v>
+        <v>1.030998111650046</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050936114606835</v>
+        <v>1.049636037571503</v>
       </c>
       <c r="J12">
-        <v>1.029316798217951</v>
+        <v>1.015689658137457</v>
       </c>
       <c r="K12">
-        <v>1.052221863641836</v>
+        <v>1.049212862572675</v>
       </c>
       <c r="L12">
-        <v>1.033917673579542</v>
+        <v>1.010363360635316</v>
       </c>
       <c r="M12">
-        <v>1.049046201510007</v>
+        <v>1.04555459495447</v>
       </c>
       <c r="N12">
-        <v>1.012945446383691</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008819214812696</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.045433885178018</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.045936565896416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9997845696946032</v>
+        <v>0.9857429822174537</v>
       </c>
       <c r="D13">
-        <v>1.037987250484324</v>
+        <v>1.035184999960437</v>
       </c>
       <c r="E13">
-        <v>1.019384245625798</v>
+        <v>0.9955873813381325</v>
       </c>
       <c r="F13">
-        <v>1.034790476419448</v>
+        <v>1.031710243204153</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051030797914386</v>
+        <v>1.049872617808149</v>
       </c>
       <c r="J13">
-        <v>1.029505395315955</v>
+        <v>1.016068347046571</v>
       </c>
       <c r="K13">
-        <v>1.052379433960399</v>
+        <v>1.049625912381472</v>
       </c>
       <c r="L13">
-        <v>1.03410644407367</v>
+        <v>1.010755291362238</v>
       </c>
       <c r="M13">
-        <v>1.049238276745517</v>
+        <v>1.046212055469156</v>
       </c>
       <c r="N13">
-        <v>1.01301077752903</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009034096381834</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.046228686052681</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.046226141733075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000743991076329</v>
+        <v>0.9867436417151251</v>
       </c>
       <c r="D14">
-        <v>1.038650022100339</v>
+        <v>1.035803938068663</v>
       </c>
       <c r="E14">
-        <v>1.020155104020898</v>
+        <v>0.9964090977137097</v>
       </c>
       <c r="F14">
-        <v>1.035568744162819</v>
+        <v>1.032525531984513</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051339895699908</v>
+        <v>1.050199534021077</v>
       </c>
       <c r="J14">
-        <v>1.030121461742069</v>
+        <v>1.016714950707014</v>
       </c>
       <c r="K14">
-        <v>1.052894159038441</v>
+        <v>1.050096947604068</v>
       </c>
       <c r="L14">
-        <v>1.034723161751654</v>
+        <v>1.011416110639806</v>
       </c>
       <c r="M14">
-        <v>1.04986580795902</v>
+        <v>1.04687527011124</v>
       </c>
       <c r="N14">
-        <v>1.013224178521315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009311061562848</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.04692531617476</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.046560573367027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001332929001917</v>
+        <v>0.9873091723291509</v>
       </c>
       <c r="D15">
-        <v>1.039057037791051</v>
+        <v>1.036110439166703</v>
       </c>
       <c r="E15">
-        <v>1.020628495678724</v>
+        <v>0.9968623933609069</v>
       </c>
       <c r="F15">
-        <v>1.03604669887135</v>
+        <v>1.032897113943624</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051529474424646</v>
+        <v>1.050364847445318</v>
       </c>
       <c r="J15">
-        <v>1.030499607576779</v>
+        <v>1.017065254676799</v>
       </c>
       <c r="K15">
-        <v>1.053210107627641</v>
+        <v>1.050313719394577</v>
       </c>
       <c r="L15">
-        <v>1.035101771972067</v>
+        <v>1.011771465727625</v>
       </c>
       <c r="M15">
-        <v>1.050251069318771</v>
+        <v>1.047155571901888</v>
       </c>
       <c r="N15">
-        <v>1.013355159209252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009443932489643</v>
+      </c>
+      <c r="O15">
+        <v>1.029999999999999</v>
+      </c>
+      <c r="P15">
+        <v>1.04718421406024</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.046719616892867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004728033251294</v>
+        <v>0.9904177602600355</v>
       </c>
       <c r="D16">
-        <v>1.041405966570355</v>
+        <v>1.037604259881964</v>
       </c>
       <c r="E16">
-        <v>1.023360507283019</v>
+        <v>0.9993107599512593</v>
       </c>
       <c r="F16">
-        <v>1.038805226460972</v>
+        <v>1.034593330950482</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052619883906651</v>
+        <v>1.051195067047452</v>
       </c>
       <c r="J16">
-        <v>1.0326791226394</v>
+        <v>1.018938764164552</v>
       </c>
       <c r="K16">
-        <v>1.055031206836418</v>
+        <v>1.051291418720687</v>
       </c>
       <c r="L16">
-        <v>1.037284934497746</v>
+        <v>1.013655755627018</v>
       </c>
       <c r="M16">
-        <v>1.052472762172902</v>
+        <v>1.048329944369957</v>
       </c>
       <c r="N16">
-        <v>1.01410998868346</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010073969247776</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.048073927041687</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.04741398541591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006829589784657</v>
+        <v>0.9922800782262199</v>
       </c>
       <c r="D17">
-        <v>1.042862103302761</v>
+        <v>1.038427721708761</v>
       </c>
       <c r="E17">
-        <v>1.025054184354509</v>
+        <v>1.000762277173041</v>
       </c>
       <c r="F17">
-        <v>1.04051548706467</v>
+        <v>1.035463868206381</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05329262456281</v>
+        <v>1.051658869687441</v>
       </c>
       <c r="J17">
-        <v>1.034027823404997</v>
+        <v>1.020038188614162</v>
       </c>
       <c r="K17">
-        <v>1.056158143419728</v>
+        <v>1.051793928934805</v>
       </c>
       <c r="L17">
-        <v>1.038636734834578</v>
+        <v>1.014756954097364</v>
       </c>
       <c r="M17">
-        <v>1.053848563283772</v>
+        <v>1.048877403439911</v>
       </c>
       <c r="N17">
-        <v>1.014576985861922</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.01041267186784</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.048378349405902</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.047771818676191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00804555561681</v>
+        <v>0.9932326752927106</v>
       </c>
       <c r="D18">
-        <v>1.043705368083601</v>
+        <v>1.038710937210046</v>
       </c>
       <c r="E18">
-        <v>1.026035050287209</v>
+        <v>1.001474668330701</v>
       </c>
       <c r="F18">
-        <v>1.041506003819107</v>
+        <v>1.035644580723619</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053681056405358</v>
+        <v>1.051831676822631</v>
       </c>
       <c r="J18">
-        <v>1.034808019819158</v>
+        <v>1.02055380458851</v>
       </c>
       <c r="K18">
-        <v>1.056810049697054</v>
+        <v>1.051893327268446</v>
       </c>
       <c r="L18">
-        <v>1.039419023929728</v>
+        <v>1.015267995536153</v>
       </c>
       <c r="M18">
-        <v>1.054644788023166</v>
+        <v>1.048875155591531</v>
       </c>
       <c r="N18">
-        <v>1.014847096622855</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010520289402718</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.048140408517723</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.04783063540524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008458526850345</v>
+        <v>0.9933414166906044</v>
       </c>
       <c r="D19">
-        <v>1.043991883294423</v>
+        <v>1.038508859320919</v>
       </c>
       <c r="E19">
-        <v>1.026368326258926</v>
+        <v>1.001502425972554</v>
       </c>
       <c r="F19">
-        <v>1.041842566335738</v>
+        <v>1.035187458891416</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053812836756688</v>
+        <v>1.051735151982272</v>
       </c>
       <c r="J19">
-        <v>1.035072963651051</v>
+        <v>1.020522245370392</v>
       </c>
       <c r="K19">
-        <v>1.057031426061672</v>
+        <v>1.051633251288114</v>
       </c>
       <c r="L19">
-        <v>1.039684728904109</v>
+        <v>1.015230871403238</v>
       </c>
       <c r="M19">
-        <v>1.054915233637246</v>
+        <v>1.048363808442709</v>
       </c>
       <c r="N19">
-        <v>1.014938815805914</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.0104211419951</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.047412929279191</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.04765305766669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006605136509995</v>
+        <v>0.9910853535789442</v>
       </c>
       <c r="D20">
-        <v>1.042706505385407</v>
+        <v>1.036937156246261</v>
       </c>
       <c r="E20">
-        <v>1.024873200003278</v>
+        <v>0.9996100916039834</v>
       </c>
       <c r="F20">
-        <v>1.040332725646166</v>
+        <v>1.032990217316075</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053220858014226</v>
+        <v>1.050886860529921</v>
       </c>
       <c r="J20">
-        <v>1.033883794402056</v>
+        <v>1.018964298452292</v>
       </c>
       <c r="K20">
-        <v>1.056037796934221</v>
+        <v>1.050360183088574</v>
       </c>
       <c r="L20">
-        <v>1.038492343653948</v>
+        <v>1.013659800547474</v>
       </c>
       <c r="M20">
-        <v>1.053701603561604</v>
+        <v>1.046476760039901</v>
       </c>
       <c r="N20">
-        <v>1.014527118657036</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009740711775814</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.045396159776556</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.046756840752943</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000461924053331</v>
+        <v>0.9853127719443842</v>
       </c>
       <c r="D21">
-        <v>1.038455132407396</v>
+        <v>1.034042504510682</v>
       </c>
       <c r="E21">
-        <v>1.019928431520132</v>
+        <v>0.9950267181134486</v>
       </c>
       <c r="F21">
-        <v>1.035339890202771</v>
+        <v>1.029626319685564</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0512490551601</v>
+        <v>1.049289654352143</v>
       </c>
       <c r="J21">
-        <v>1.029940345099672</v>
+        <v>1.01543765866409</v>
       </c>
       <c r="K21">
-        <v>1.052742834124627</v>
+        <v>1.048406411543766</v>
       </c>
       <c r="L21">
-        <v>1.034541840133405</v>
+        <v>1.010102927405154</v>
       </c>
       <c r="M21">
-        <v>1.049681304388056</v>
+        <v>1.044067340947836</v>
       </c>
       <c r="N21">
-        <v>1.013161442317415</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008500661662512</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.04344872904288</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.045378669277752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9965044229282676</v>
+        <v>0.98161696435098</v>
       </c>
       <c r="D22">
-        <v>1.035724019787243</v>
+        <v>1.032211449944997</v>
       </c>
       <c r="E22">
-        <v>1.016751860029935</v>
+        <v>0.9921040231038474</v>
       </c>
       <c r="F22">
-        <v>1.032132994612475</v>
+        <v>1.027528330840024</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049971684726568</v>
+        <v>1.048266142925614</v>
       </c>
       <c r="J22">
-        <v>1.027398810711345</v>
+        <v>1.013185762078501</v>
       </c>
       <c r="K22">
-        <v>1.050619510397429</v>
+        <v>1.047170705657312</v>
       </c>
       <c r="L22">
-        <v>1.031998606996309</v>
+        <v>1.007833540630582</v>
       </c>
       <c r="M22">
-        <v>1.047093681005803</v>
+        <v>1.04257348488027</v>
       </c>
       <c r="N22">
-        <v>1.01228098384956</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007712168363422</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.04226644597566</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.044491676794815</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9986117005079713</v>
+        <v>0.9835767129992488</v>
       </c>
       <c r="D23">
-        <v>1.037177512515356</v>
+        <v>1.033169108109128</v>
       </c>
       <c r="E23">
-        <v>1.018442445363891</v>
+        <v>0.9936508829781187</v>
       </c>
       <c r="F23">
-        <v>1.033839660047974</v>
+        <v>1.028633580927594</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050652504329345</v>
+        <v>1.048804376764251</v>
       </c>
       <c r="J23">
-        <v>1.028752206492365</v>
+        <v>1.014377207118227</v>
       </c>
       <c r="K23">
-        <v>1.051750164408491</v>
+        <v>1.047812641070423</v>
       </c>
       <c r="L23">
-        <v>1.033352635161146</v>
+        <v>1.00903342008308</v>
       </c>
       <c r="M23">
-        <v>1.048471285892652</v>
+        <v>1.04335818176377</v>
       </c>
       <c r="N23">
-        <v>1.012749861862231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.00812609952609</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.042887479163861</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.044936039104659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006706587614057</v>
+        <v>0.9911224785982434</v>
       </c>
       <c r="D24">
-        <v>1.042776832125648</v>
+        <v>1.036899213834484</v>
       </c>
       <c r="E24">
-        <v>1.024955000712871</v>
+        <v>0.999628213352233</v>
       </c>
       <c r="F24">
-        <v>1.040415329405238</v>
+        <v>1.032929025265088</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05325329846599</v>
+        <v>1.05086853283425</v>
       </c>
       <c r="J24">
-        <v>1.033948894888122</v>
+        <v>1.018966596670316</v>
       </c>
       <c r="K24">
-        <v>1.056092193040514</v>
+        <v>1.050307908767382</v>
       </c>
       <c r="L24">
-        <v>1.038557606914418</v>
+        <v>1.013661861127983</v>
       </c>
       <c r="M24">
-        <v>1.053768027632723</v>
+        <v>1.04640153651844</v>
       </c>
       <c r="N24">
-        <v>1.014549658535639</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009725775492349</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.04529607847998</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.04669287058967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015717095352449</v>
+        <v>0.9995287288051032</v>
       </c>
       <c r="D25">
-        <v>1.049037666706019</v>
+        <v>1.041096862560124</v>
       </c>
       <c r="E25">
-        <v>1.032238628990744</v>
+        <v>1.006320906766963</v>
       </c>
       <c r="F25">
-        <v>1.047771295571002</v>
+        <v>1.037771825748572</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056116586527265</v>
+        <v>1.053131480761544</v>
       </c>
       <c r="J25">
-        <v>1.039726851713496</v>
+        <v>1.024071963521187</v>
       </c>
       <c r="K25">
-        <v>1.060919607535041</v>
+        <v>1.053089023825927</v>
       </c>
       <c r="L25">
-        <v>1.044356277455968</v>
+        <v>1.018821884900045</v>
       </c>
       <c r="M25">
-        <v>1.059670672819116</v>
+        <v>1.049810772591052</v>
       </c>
       <c r="N25">
-        <v>1.016549285803457</v>
+        <v>1.011504498284184</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.047994237504738</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.048656386670316</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_24/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00595572315097</v>
+        <v>1.005499666858843</v>
       </c>
       <c r="D2">
-        <v>1.044300154837104</v>
+        <v>1.041027542974984</v>
       </c>
       <c r="E2">
-        <v>1.011457282439316</v>
+        <v>1.01109175486615</v>
       </c>
       <c r="F2">
-        <v>1.041499090302217</v>
+        <v>1.039464460670099</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.054814313638816</v>
+        <v>1.05344618780246</v>
       </c>
       <c r="J2">
-        <v>1.02795974715875</v>
+        <v>1.027517118976241</v>
       </c>
       <c r="K2">
-        <v>1.055174980958157</v>
+        <v>1.051943425029045</v>
       </c>
       <c r="L2">
-        <v>1.022759273832241</v>
+        <v>1.02239869678831</v>
       </c>
       <c r="M2">
-        <v>1.052409036803639</v>
+        <v>1.050400065921439</v>
       </c>
       <c r="N2">
-        <v>1.012849949663285</v>
+        <v>1.01424172763672</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.050050565481487</v>
+        <v>1.048460618734407</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.050083665641145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.047807387666111</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025739617520129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010498514426581</v>
+        <v>1.009884882325269</v>
       </c>
       <c r="D3">
-        <v>1.046600075302908</v>
+        <v>1.043111241450329</v>
       </c>
       <c r="E3">
-        <v>1.015104058617535</v>
+        <v>1.01459689422852</v>
       </c>
       <c r="F3">
-        <v>1.044165869913206</v>
+        <v>1.041979217262852</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.055993634211551</v>
+        <v>1.054504681663641</v>
       </c>
       <c r="J3">
-        <v>1.030707014123377</v>
+        <v>1.030109655281203</v>
       </c>
       <c r="K3">
-        <v>1.056669496314416</v>
+        <v>1.053220692955767</v>
       </c>
       <c r="L3">
-        <v>1.025547260020636</v>
+        <v>1.025046350624439</v>
       </c>
       <c r="M3">
-        <v>1.054263185899281</v>
+        <v>1.052101728642722</v>
       </c>
       <c r="N3">
-        <v>1.01380488221096</v>
+        <v>1.01495323883021</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.051517979623215</v>
+        <v>1.049807354804201</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.051137760962401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.048707600775429</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025986263369805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013378776199656</v>
+        <v>1.01266636288708</v>
       </c>
       <c r="D4">
-        <v>1.048065679453882</v>
+        <v>1.044440104544695</v>
       </c>
       <c r="E4">
-        <v>1.017422100679669</v>
+        <v>1.016826092643673</v>
       </c>
       <c r="F4">
-        <v>1.045866952287363</v>
+        <v>1.043584315762055</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.056732511059604</v>
+        <v>1.055167052261895</v>
       </c>
       <c r="J4">
-        <v>1.032446334350374</v>
+        <v>1.031751519176636</v>
       </c>
       <c r="K4">
-        <v>1.057616642071811</v>
+        <v>1.054030205462121</v>
       </c>
       <c r="L4">
-        <v>1.027314707043641</v>
+        <v>1.026725596029956</v>
       </c>
       <c r="M4">
-        <v>1.05544161059255</v>
+        <v>1.053183703639756</v>
       </c>
       <c r="N4">
-        <v>1.014409247829022</v>
+        <v>1.015403813044812</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.052450609202912</v>
+        <v>1.050663654106476</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.051808335003928</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.049280945420485</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026140308083411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014578417586981</v>
+        <v>1.013824729492268</v>
       </c>
       <c r="D5">
-        <v>1.048682039615876</v>
+        <v>1.044999338846694</v>
       </c>
       <c r="E5">
-        <v>1.018389469399161</v>
+        <v>1.017756277500683</v>
       </c>
       <c r="F5">
-        <v>1.046579904065537</v>
+        <v>1.044257163893135</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.057040021626666</v>
+        <v>1.0554425226304</v>
       </c>
       <c r="J5">
-        <v>1.03317104217052</v>
+        <v>1.03243540877423</v>
       </c>
       <c r="K5">
-        <v>1.058015602502268</v>
+        <v>1.054371617691968</v>
       </c>
       <c r="L5">
-        <v>1.028051736352957</v>
+        <v>1.027425672281326</v>
       </c>
       <c r="M5">
-        <v>1.055935525744552</v>
+        <v>1.053637285608273</v>
       </c>
       <c r="N5">
-        <v>1.014661866311001</v>
+        <v>1.015592052426924</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.052841503485741</v>
+        <v>1.051022628767125</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.052097480276209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.049530120104038</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02620558663235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014782046558028</v>
+        <v>1.014020899393235</v>
       </c>
       <c r="D6">
-        <v>1.048791898269967</v>
+        <v>1.045099195904371</v>
       </c>
       <c r="E6">
-        <v>1.018554392177661</v>
+        <v>1.017914415486038</v>
       </c>
       <c r="F6">
-        <v>1.046703551249007</v>
+        <v>1.044373744613705</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057094442457926</v>
+        <v>1.055491267343492</v>
       </c>
       <c r="J6">
-        <v>1.033295130710463</v>
+        <v>1.032552122079833</v>
       </c>
       <c r="K6">
-        <v>1.058088924988357</v>
+        <v>1.054434868941492</v>
       </c>
       <c r="L6">
-        <v>1.028178016309646</v>
+        <v>1.027545210104817</v>
       </c>
       <c r="M6">
-        <v>1.056022392823061</v>
+        <v>1.053717049195188</v>
       </c>
       <c r="N6">
-        <v>1.01470616562388</v>
+        <v>1.0156248733069</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.052910251799819</v>
+        <v>1.051085755391328</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.052157928066523</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.049584324882433</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026218690427063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013402936591261</v>
+        <v>1.01270145661217</v>
       </c>
       <c r="D7">
-        <v>1.048091840682658</v>
+        <v>1.044468115553293</v>
       </c>
       <c r="E7">
-        <v>1.017443326308682</v>
+        <v>1.016857323531524</v>
       </c>
       <c r="F7">
-        <v>1.045887954967606</v>
+        <v>1.043608537880373</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.056745004612405</v>
+        <v>1.055183104799727</v>
       </c>
       <c r="J7">
-        <v>1.032463930885213</v>
+        <v>1.031779771282777</v>
       </c>
       <c r="K7">
-        <v>1.057639703589643</v>
+        <v>1.0540550813214</v>
       </c>
       <c r="L7">
-        <v>1.02733275487744</v>
+        <v>1.026753530640482</v>
       </c>
       <c r="M7">
-        <v>1.055459559960647</v>
+        <v>1.053204828054491</v>
       </c>
       <c r="N7">
-        <v>1.014418240843703</v>
+        <v>1.015440262257107</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.052464814693665</v>
+        <v>1.050680372432759</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.05184443146682</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.049320343831835</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026148632877868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007513754764428</v>
+        <v>1.007041970167815</v>
       </c>
       <c r="D8">
-        <v>1.045104359886574</v>
+        <v>1.041768369686604</v>
       </c>
       <c r="E8">
-        <v>1.012709073758893</v>
+        <v>1.012330426633472</v>
       </c>
       <c r="F8">
-        <v>1.042419704649431</v>
+        <v>1.040346645037011</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055228293201932</v>
+        <v>1.053832865385703</v>
       </c>
       <c r="J8">
-        <v>1.028906221638972</v>
+        <v>1.028447853382164</v>
       </c>
       <c r="K8">
-        <v>1.055706152595556</v>
+        <v>1.052410792690632</v>
       </c>
       <c r="L8">
-        <v>1.023719601081494</v>
+        <v>1.023345925189512</v>
       </c>
       <c r="M8">
-        <v>1.053054169400183</v>
+        <v>1.051006482255288</v>
       </c>
       <c r="N8">
-        <v>1.013182738453188</v>
+        <v>1.014581351909758</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.050561137853046</v>
+        <v>1.04894055122392</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.050481787676916</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.048162686264797</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025836220779982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9966458437712337</v>
+        <v>0.9965661991905664</v>
       </c>
       <c r="D9">
-        <v>1.039631728886169</v>
+        <v>1.036818231139755</v>
       </c>
       <c r="E9">
-        <v>1.004018456713515</v>
+        <v>1.00399234206714</v>
       </c>
       <c r="F9">
-        <v>1.036094229077278</v>
+        <v>1.034390794365883</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052351156808543</v>
+        <v>1.051248717368466</v>
       </c>
       <c r="J9">
-        <v>1.022317604477908</v>
+        <v>1.022240799256349</v>
       </c>
       <c r="K9">
-        <v>1.052112944320838</v>
+        <v>1.049340922927604</v>
       </c>
       <c r="L9">
-        <v>1.017046671977906</v>
+        <v>1.01702097669821</v>
       </c>
       <c r="M9">
-        <v>1.048627640356187</v>
+        <v>1.046949501757633</v>
       </c>
       <c r="N9">
-        <v>1.010888383412847</v>
+        <v>1.012886097166633</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.047057876679129</v>
+        <v>1.045729753238078</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.047938100620842</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.045988731719618</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025227859137731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9891049911640366</v>
+        <v>0.9893554779328844</v>
       </c>
       <c r="D10">
-        <v>1.035933264196402</v>
+        <v>1.033493218537222</v>
       </c>
       <c r="E10">
-        <v>0.9980358892799681</v>
+        <v>0.9983066165412048</v>
       </c>
       <c r="F10">
-        <v>1.031862678183041</v>
+        <v>1.030433898885114</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050339505519954</v>
+        <v>1.049457897367029</v>
       </c>
       <c r="J10">
-        <v>1.01775764335773</v>
+        <v>1.017997882009634</v>
       </c>
       <c r="K10">
-        <v>1.04968268810892</v>
+        <v>1.047282975822318</v>
       </c>
       <c r="L10">
-        <v>1.012440697137609</v>
+        <v>1.012706513008447</v>
       </c>
       <c r="M10">
-        <v>1.045679524856438</v>
+        <v>1.044274573748754</v>
       </c>
       <c r="N10">
-        <v>1.009315149631822</v>
+        <v>1.0118529015238</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.044775706515316</v>
+        <v>1.0436638559735</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.046236373042976</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.044551928295516</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024822524230452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.986203539801322</v>
+        <v>0.9866093977970418</v>
       </c>
       <c r="D11">
-        <v>1.034912336279346</v>
+        <v>1.032572326848998</v>
       </c>
       <c r="E11">
-        <v>0.9958315634241739</v>
+        <v>0.9962335616745496</v>
       </c>
       <c r="F11">
-        <v>1.030991541169457</v>
+        <v>1.029653765961688</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049760092531619</v>
+        <v>1.04895762799778</v>
       </c>
       <c r="J11">
-        <v>1.016161748060532</v>
+        <v>1.01655005024561</v>
       </c>
       <c r="K11">
-        <v>1.049204581403325</v>
+        <v>1.046905052943182</v>
       </c>
       <c r="L11">
-        <v>1.010832520834884</v>
+        <v>1.011226858775454</v>
       </c>
       <c r="M11">
-        <v>1.045351748699307</v>
+        <v>1.044037315654185</v>
       </c>
       <c r="N11">
-        <v>1.008886893273348</v>
+        <v>1.011772492681553</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.044949284920926</v>
+        <v>1.043909584618989</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.045930711000434</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.044320333749239</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024828439532826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9852475543379082</v>
+        <v>0.9856967267969974</v>
       </c>
       <c r="D12">
-        <v>1.034721959397275</v>
+        <v>1.032391061055083</v>
       </c>
       <c r="E12">
-        <v>0.9951425031764412</v>
+        <v>0.9955750244488629</v>
       </c>
       <c r="F12">
-        <v>1.030998111650046</v>
+        <v>1.02967823534769</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049636037571503</v>
+        <v>1.048851406039825</v>
       </c>
       <c r="J12">
-        <v>1.015689658137457</v>
+        <v>1.016119009696113</v>
       </c>
       <c r="K12">
-        <v>1.049212862572675</v>
+        <v>1.04692294152551</v>
       </c>
       <c r="L12">
-        <v>1.010363360635316</v>
+        <v>1.010787493878467</v>
       </c>
       <c r="M12">
-        <v>1.04555459495447</v>
+        <v>1.044258110534009</v>
       </c>
       <c r="N12">
-        <v>1.008819214812696</v>
+        <v>1.011818678820437</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.045433885178018</v>
+        <v>1.044408724726159</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.045936565896416</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.044332981004194</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02488335392907</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9857429822174537</v>
+        <v>0.986129553422381</v>
       </c>
       <c r="D13">
-        <v>1.035184999960437</v>
+        <v>1.032786718636846</v>
       </c>
       <c r="E13">
-        <v>0.9955873813381325</v>
+        <v>0.9959546513811016</v>
       </c>
       <c r="F13">
-        <v>1.031710243204153</v>
+        <v>1.030344433455959</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049872617808149</v>
+        <v>1.049050949591245</v>
       </c>
       <c r="J13">
-        <v>1.016068347046571</v>
+        <v>1.016437945311321</v>
       </c>
       <c r="K13">
-        <v>1.049625912381472</v>
+        <v>1.047269607429352</v>
       </c>
       <c r="L13">
-        <v>1.010755291362238</v>
+        <v>1.011115470487018</v>
       </c>
       <c r="M13">
-        <v>1.046212055469156</v>
+        <v>1.04487032923445</v>
       </c>
       <c r="N13">
-        <v>1.009034096381834</v>
+        <v>1.011932142519812</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.046228686052681</v>
+        <v>1.045168015499137</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.046226141733075</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.04457537423157</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024989723358109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9867436417151251</v>
+        <v>0.9870407820360987</v>
       </c>
       <c r="D14">
-        <v>1.035803938068663</v>
+        <v>1.033325697041245</v>
       </c>
       <c r="E14">
-        <v>0.9964090977137097</v>
+        <v>0.996690055456831</v>
       </c>
       <c r="F14">
-        <v>1.032525531984513</v>
+        <v>1.031100261497895</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050199534021077</v>
+        <v>1.049328373091318</v>
       </c>
       <c r="J14">
-        <v>1.016714950707014</v>
+        <v>1.016999237558108</v>
       </c>
       <c r="K14">
-        <v>1.050096947604068</v>
+        <v>1.047661546371829</v>
       </c>
       <c r="L14">
-        <v>1.011416110639806</v>
+        <v>1.011691714807382</v>
       </c>
       <c r="M14">
-        <v>1.04687527011124</v>
+        <v>1.04547480777416</v>
       </c>
       <c r="N14">
-        <v>1.009311061562848</v>
+        <v>1.012043405426052</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04692531617476</v>
+        <v>1.04581836129241</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.046560573367027</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.044854018882532</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025087645578397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9873091723291509</v>
+        <v>0.987561027126192</v>
       </c>
       <c r="D15">
-        <v>1.036110439166703</v>
+        <v>1.033595051057266</v>
       </c>
       <c r="E15">
-        <v>0.9968623933609069</v>
+        <v>0.9971013048868758</v>
       </c>
       <c r="F15">
-        <v>1.032897113943624</v>
+        <v>1.031442741353263</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050364847445318</v>
+        <v>1.04946905576187</v>
       </c>
       <c r="J15">
-        <v>1.017065254676799</v>
+        <v>1.017306313573845</v>
       </c>
       <c r="K15">
-        <v>1.050313719394577</v>
+        <v>1.047841486652732</v>
       </c>
       <c r="L15">
-        <v>1.011771465727625</v>
+        <v>1.012005861264995</v>
       </c>
       <c r="M15">
-        <v>1.047155571901888</v>
+        <v>1.045726319336501</v>
       </c>
       <c r="N15">
-        <v>1.009443932489643</v>
+        <v>1.012091066972673</v>
       </c>
       <c r="O15">
-        <v>1.029999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.04718421406024</v>
+        <v>1.046054532299141</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.046719616892867</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.044987595605932</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02512758833111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9904177602600355</v>
+        <v>0.9904519852836737</v>
       </c>
       <c r="D16">
-        <v>1.037604259881964</v>
+        <v>1.0349178739945</v>
       </c>
       <c r="E16">
-        <v>0.9993107599512593</v>
+        <v>0.9993551714592712</v>
       </c>
       <c r="F16">
-        <v>1.034593330950482</v>
+        <v>1.032998741402154</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.051195067047452</v>
+        <v>1.050179341310786</v>
       </c>
       <c r="J16">
-        <v>1.018938764164552</v>
+        <v>1.018971598257264</v>
       </c>
       <c r="K16">
-        <v>1.051291418720687</v>
+        <v>1.048649138986077</v>
       </c>
       <c r="L16">
-        <v>1.013655755627018</v>
+        <v>1.0136993662414</v>
       </c>
       <c r="M16">
-        <v>1.048329944369957</v>
+        <v>1.046761696293778</v>
       </c>
       <c r="N16">
-        <v>1.010073969247776</v>
+        <v>1.012320540299672</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.048073927041687</v>
+        <v>1.046834348041354</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.04741398541591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.045562041840229</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025283187953474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9922800782262199</v>
+        <v>0.9922086744426595</v>
       </c>
       <c r="D17">
-        <v>1.038427721708761</v>
+        <v>1.035655214545587</v>
       </c>
       <c r="E17">
-        <v>1.000762277173041</v>
+        <v>1.000715283491327</v>
       </c>
       <c r="F17">
-        <v>1.035463868206381</v>
+        <v>1.033797567471461</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.051658869687441</v>
+        <v>1.050582079159196</v>
       </c>
       <c r="J17">
-        <v>1.020038188614162</v>
+        <v>1.019969589814646</v>
       </c>
       <c r="K17">
-        <v>1.051793928934805</v>
+        <v>1.049065683794609</v>
       </c>
       <c r="L17">
-        <v>1.014756954097364</v>
+        <v>1.01471078280989</v>
       </c>
       <c r="M17">
-        <v>1.048877403439911</v>
+        <v>1.047237863762318</v>
       </c>
       <c r="N17">
-        <v>1.01041267186784</v>
+        <v>1.01246975922546</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.048378349405902</v>
+        <v>1.047082291920891</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.047771818676191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.045859347095967</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025351077734697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9932326752927106</v>
+        <v>0.9931288262531957</v>
       </c>
       <c r="D18">
-        <v>1.038710937210046</v>
+        <v>1.03591755708472</v>
       </c>
       <c r="E18">
-        <v>1.001474668330701</v>
+        <v>1.001404405333263</v>
       </c>
       <c r="F18">
-        <v>1.035644580723619</v>
+        <v>1.033956305673887</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051831676822631</v>
+        <v>1.050735670472947</v>
       </c>
       <c r="J18">
-        <v>1.02055380458851</v>
+        <v>1.02045395530168</v>
       </c>
       <c r="K18">
-        <v>1.051893327268446</v>
+        <v>1.049143827589676</v>
       </c>
       <c r="L18">
-        <v>1.015267995536153</v>
+        <v>1.015198940865886</v>
       </c>
       <c r="M18">
-        <v>1.048875155591531</v>
+        <v>1.047213566374041</v>
       </c>
       <c r="N18">
-        <v>1.010520289402718</v>
+        <v>1.012515270039329</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.048140408517723</v>
+        <v>1.046826650113419</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.04783063540524</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.045901992957691</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025334959864511</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9933414166906044</v>
+        <v>0.9932666289947456</v>
       </c>
       <c r="D19">
-        <v>1.038508859320919</v>
+        <v>1.035753872789598</v>
       </c>
       <c r="E19">
-        <v>1.001502425972554</v>
+        <v>1.001465725701461</v>
       </c>
       <c r="F19">
-        <v>1.035187458891416</v>
+        <v>1.033522345974026</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051735151982272</v>
+        <v>1.050657638505487</v>
       </c>
       <c r="J19">
-        <v>1.020522245370392</v>
+        <v>1.020450320247119</v>
       </c>
       <c r="K19">
-        <v>1.051633251288114</v>
+        <v>1.048921331623115</v>
       </c>
       <c r="L19">
-        <v>1.015230871403238</v>
+        <v>1.015194798814682</v>
       </c>
       <c r="M19">
-        <v>1.048363808442709</v>
+        <v>1.046724904210886</v>
       </c>
       <c r="N19">
-        <v>1.0104211419951</v>
+        <v>1.012447383534085</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.047412929279191</v>
+        <v>1.046116689176564</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.04765305766669</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.045751615605216</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025243395410425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9910853535789442</v>
+        <v>0.991206952508119</v>
       </c>
       <c r="D20">
-        <v>1.036937156246261</v>
+        <v>1.03438447538653</v>
       </c>
       <c r="E20">
-        <v>0.9996100916039834</v>
+        <v>0.9997628972227686</v>
       </c>
       <c r="F20">
-        <v>1.032990217316075</v>
+        <v>1.031472609721997</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050886860529921</v>
+        <v>1.049930912248293</v>
       </c>
       <c r="J20">
-        <v>1.018964298452292</v>
+        <v>1.019081090594831</v>
       </c>
       <c r="K20">
-        <v>1.050360183088574</v>
+        <v>1.047848510042655</v>
       </c>
       <c r="L20">
-        <v>1.013659800547474</v>
+        <v>1.01380991707871</v>
       </c>
       <c r="M20">
-        <v>1.046476760039901</v>
+        <v>1.044983740616628</v>
       </c>
       <c r="N20">
-        <v>1.009740711775814</v>
+        <v>1.01205060203887</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.045396159776556</v>
+        <v>1.044214599728808</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.046756840752943</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.044997369798677</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02494004869779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9853127719443842</v>
+        <v>0.9858851538513803</v>
       </c>
       <c r="D21">
-        <v>1.034042504510682</v>
+        <v>1.031846190877443</v>
       </c>
       <c r="E21">
-        <v>0.9950267181134486</v>
+        <v>0.9955943017450641</v>
       </c>
       <c r="F21">
-        <v>1.029626319685564</v>
+        <v>1.028398279354896</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049289654352143</v>
+        <v>1.048579837948849</v>
       </c>
       <c r="J21">
-        <v>1.01543765866409</v>
+        <v>1.015985098797908</v>
       </c>
       <c r="K21">
-        <v>1.048406411543766</v>
+        <v>1.046248342492163</v>
       </c>
       <c r="L21">
-        <v>1.010102927405154</v>
+        <v>1.010659624929302</v>
       </c>
       <c r="M21">
-        <v>1.044067340947836</v>
+        <v>1.042860896898336</v>
       </c>
       <c r="N21">
-        <v>1.008500661662512</v>
+        <v>1.011633176248222</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.04344872904288</v>
+        <v>1.042493912726233</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.045378669277752</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.043869530130882</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024615642645923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.98161696435098</v>
+        <v>0.982475924289809</v>
       </c>
       <c r="D22">
-        <v>1.032211449944997</v>
+        <v>1.030240842806133</v>
       </c>
       <c r="E22">
-        <v>0.9921040231038474</v>
+        <v>0.9929359099485761</v>
       </c>
       <c r="F22">
-        <v>1.027528330840024</v>
+        <v>1.02648444408988</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048266142925614</v>
+        <v>1.047712195997593</v>
       </c>
       <c r="J22">
-        <v>1.013185762078501</v>
+        <v>1.014005011995564</v>
       </c>
       <c r="K22">
-        <v>1.047170705657312</v>
+        <v>1.045236119695793</v>
       </c>
       <c r="L22">
-        <v>1.007833540630582</v>
+        <v>1.008648618870445</v>
       </c>
       <c r="M22">
-        <v>1.04257348488027</v>
+        <v>1.041548884496604</v>
       </c>
       <c r="N22">
-        <v>1.007712168363422</v>
+        <v>1.011361112686037</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.04226644597566</v>
+        <v>1.041455544996674</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.044491676794815</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.043139234563755</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02441061839393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9835767129992488</v>
+        <v>0.984263338061802</v>
       </c>
       <c r="D23">
-        <v>1.033169108109128</v>
+        <v>1.031073086083742</v>
       </c>
       <c r="E23">
-        <v>0.9936508829781187</v>
+        <v>0.9943234296622914</v>
       </c>
       <c r="F23">
-        <v>1.028633580927594</v>
+        <v>1.02748459565219</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048804376764251</v>
+        <v>1.048160297716559</v>
       </c>
       <c r="J23">
-        <v>1.014377207118227</v>
+        <v>1.015033061722119</v>
       </c>
       <c r="K23">
-        <v>1.047812641070423</v>
+        <v>1.045753968179633</v>
       </c>
       <c r="L23">
-        <v>1.00903342008308</v>
+        <v>1.009692744866912</v>
       </c>
       <c r="M23">
-        <v>1.04335818176377</v>
+        <v>1.042229881105715</v>
       </c>
       <c r="N23">
-        <v>1.00812609952609</v>
+        <v>1.01145526744267</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.042887479163861</v>
+        <v>1.041994507239374</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.044936039104659</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.043494916442522</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02451180704152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9911224785982434</v>
+        <v>0.9912504149166382</v>
       </c>
       <c r="D24">
-        <v>1.036899213834484</v>
+        <v>1.034352836444449</v>
       </c>
       <c r="E24">
-        <v>0.999628213352233</v>
+        <v>0.9997880054217617</v>
       </c>
       <c r="F24">
-        <v>1.032929025265088</v>
+        <v>1.03141594214915</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.05086853283425</v>
+        <v>1.049916416829804</v>
       </c>
       <c r="J24">
-        <v>1.018966596670316</v>
+        <v>1.019089483387838</v>
       </c>
       <c r="K24">
-        <v>1.050307908767382</v>
+        <v>1.047802389245134</v>
       </c>
       <c r="L24">
-        <v>1.013661861127983</v>
+        <v>1.013818844945515</v>
       </c>
       <c r="M24">
-        <v>1.04640153651844</v>
+        <v>1.044912940541694</v>
       </c>
       <c r="N24">
-        <v>1.009725775492349</v>
+        <v>1.012038978057096</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.04529607847998</v>
+        <v>1.044117961395364</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.04669287058967</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.044935057554425</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.0249193329277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9995287288051032</v>
+        <v>0.9993251777105732</v>
       </c>
       <c r="D25">
-        <v>1.041096862560124</v>
+        <v>1.038137946057023</v>
       </c>
       <c r="E25">
-        <v>1.006320906766963</v>
+        <v>1.006182599461561</v>
       </c>
       <c r="F25">
-        <v>1.037771825748572</v>
+        <v>1.035962524402289</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.053131480761544</v>
+        <v>1.051943885315927</v>
       </c>
       <c r="J25">
-        <v>1.024071963521187</v>
+        <v>1.023875273679196</v>
       </c>
       <c r="K25">
-        <v>1.053089023825927</v>
+        <v>1.050171722775905</v>
       </c>
       <c r="L25">
-        <v>1.018821884900045</v>
+        <v>1.018685690744987</v>
       </c>
       <c r="M25">
-        <v>1.049810772591052</v>
+        <v>1.048027088921354</v>
       </c>
       <c r="N25">
-        <v>1.011504498284184</v>
+        <v>1.013304022312481</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.047994237504738</v>
+        <v>1.046582584604273</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.048656386670316</v>
+        <v>1.046607128624056</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025397976348994</v>
       </c>
     </row>
   </sheetData>
